--- a/python/mywork/每日工作.xlsx
+++ b/python/mywork/每日工作.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\贾建伟\17_个人\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AppServ\www\github\python.git\trunk\python\mywork\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="日常" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="237">
   <si>
     <t>上午</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -900,6 +900,70 @@
   </si>
   <si>
     <t>京东购买U盘，500个，单价29.5元，共14750.7元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速给青岛换狗8元垃圾款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东刻盘80个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仲老师寄回11箱包装德邦496元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速寄硬盘广东10元，垃圾款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸杯两包33.8元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王金仙寄过来一个包装，几个U盘狗卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浇花3-6月收据450元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邱武广州40套盘狗卡顺丰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东家长换U盘，优速8元垃圾款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海龙饭钱28元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔梁饭钱29元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仲老师寄回来的102个U盘，111加密狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德邦杜维娟12空盒30元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印泥10元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北150套狗卡密蒋老师带走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建117套狗卡密成老师带走</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1295,10 +1359,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:D178"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B164" sqref="B164"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B178" sqref="B178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2327,14 +2391,112 @@
         <v>217</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B161" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B162" t="s">
         <v>220</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B163" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B164" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B165" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A166" s="13">
+        <v>42823</v>
+      </c>
+      <c r="B166" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A167" s="13">
+        <v>42824</v>
+      </c>
+      <c r="B167" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A168" s="13">
+        <v>42825</v>
+      </c>
+      <c r="B168" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B169" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A170" s="13">
+        <v>42828</v>
+      </c>
+      <c r="B170" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B171" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B172" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B173" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A174" s="13">
+        <v>42830</v>
+      </c>
+      <c r="B174" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B175" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A176" s="13">
+        <v>42831</v>
+      </c>
+      <c r="B176" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B177" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B178" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2349,10 +2511,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41:C77"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3309,6 +3471,66 @@
       </c>
       <c r="C77" s="2">
         <v>14750.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
+        <v>223</v>
+      </c>
+      <c r="C78" s="2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" s="14">
+        <v>42824</v>
+      </c>
+      <c r="B79" t="s">
+        <v>225</v>
+      </c>
+      <c r="C79" s="2">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" s="14">
+        <v>42828</v>
+      </c>
+      <c r="B80" t="s">
+        <v>230</v>
+      </c>
+      <c r="C80" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B81" t="s">
+        <v>231</v>
+      </c>
+      <c r="C81" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82" s="14">
+        <v>42830</v>
+      </c>
+      <c r="B82" t="s">
+        <v>233</v>
+      </c>
+      <c r="C82" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83" s="14">
+        <v>42831</v>
+      </c>
+      <c r="B83" t="s">
+        <v>234</v>
+      </c>
+      <c r="C83" s="2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/python/mywork/每日工作.xlsx
+++ b/python/mywork/每日工作.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="286">
   <si>
     <t>上午</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -923,10 +923,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王金仙寄过来一个包装，几个U盘狗卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>浇花3-6月收据450元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -963,7 +959,207 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>福建117套狗卡密成老师带走</t>
+    <t>蒋老师带回来23套狗卡密（包括一个坏的加密锁）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京要20套盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填报销单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七下人教语文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五下青岛数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八下沪教英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家长换加密锁一个广州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海龙饭钱29元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三月份报销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廊坊运来两箱货，到付90元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廊坊2箱包装到付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印泥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德邦杜维娟12空盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸杯2包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仲老师11箱包装德邦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东U盘500个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝加密狗500个+雕刻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收据10本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝加密狗1个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水费50电费60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺丰月结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语文课改七下教材全解2本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400三部电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁教小五下语文电子书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印材料51元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德邦李丽娜一箱货到付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东收据5包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取发票小黄车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学五下英语数学电子课本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七牛云充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印纸，墨盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝五下英语课本，全解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生纸3包，垃圾袋5包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月份清账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月份清账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺丰月结309元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建77套狗卡密成老师带走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰安家长到付申通加密狗15元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政座机15340116153缴费99.8元*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政座机15340116153缴费99.8元*3，共299.4元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成老师福建带回63套狗盘卡，其中福建留下一个加密狗，其中坏了一个U盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京带走20套狗盘卡，20套包装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王金仙寄过来一个包装，几个U盘狗卡，8个，杜维娟的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速泰安加密狗邮寄8元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔梁饭钱29元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔梁优速10元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -990,7 +1186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1021,6 +1217,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1034,7 +1236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1052,6 +1254,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1359,10 +1565,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:D178"/>
+  <dimension ref="A1:D197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="B178" sqref="B178"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2437,12 +2643,12 @@
         <v>42825</v>
       </c>
       <c r="B168" t="s">
-        <v>226</v>
+        <v>282</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B169" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.15">
@@ -2450,22 +2656,22 @@
         <v>42828</v>
       </c>
       <c r="B170" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B171" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B172" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B173" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.15">
@@ -2473,12 +2679,12 @@
         <v>42830</v>
       </c>
       <c r="B174" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B175" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.15">
@@ -2486,17 +2692,124 @@
         <v>42831</v>
       </c>
       <c r="B176" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B177" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B178" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B177" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B179" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A180" s="13">
+        <v>42832</v>
+      </c>
+      <c r="B180" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B178" t="s">
-        <v>235</v>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B181" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B182" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B183" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B184" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A185" s="13">
+        <v>42835</v>
+      </c>
+      <c r="B185" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B186" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B187" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B188" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A189" s="15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A190" s="13">
+        <v>42836</v>
+      </c>
+      <c r="B190" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B191" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B192" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A193" s="13">
+        <v>42837</v>
+      </c>
+      <c r="B193" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B194" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B195" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B196" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B197" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -2511,10 +2824,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92:B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2524,7 +2837,7 @@
     <col min="3" max="3" width="11.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -3023,7 +3336,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
         <v>42776</v>
       </c>
@@ -3034,7 +3347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
         <v>42779</v>
       </c>
@@ -3045,7 +3358,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
         <v>42780</v>
       </c>
@@ -3056,7 +3369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>112</v>
       </c>
@@ -3064,7 +3377,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="14">
         <v>42783</v>
       </c>
@@ -3075,7 +3388,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="14">
         <v>42786</v>
       </c>
@@ -3086,7 +3399,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>128</v>
       </c>
@@ -3096,10 +3409,19 @@
       <c r="F39">
         <v>42.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="4" t="s">
-        <v>148</v>
+      <c r="H39" t="s">
+        <v>270</v>
+      </c>
+      <c r="I39" t="s">
+        <v>271</v>
+      </c>
+      <c r="J39" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40" s="15" t="s">
+        <v>273</v>
       </c>
       <c r="F40">
         <v>285.5</v>
@@ -3107,8 +3429,15 @@
       <c r="H40">
         <v>22285.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I40">
+        <v>21190.2</v>
+      </c>
+      <c r="J40">
+        <f>H40-I40</f>
+        <v>1095.2999999999993</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="14">
         <v>42787</v>
       </c>
@@ -3125,14 +3454,14 @@
         <v>219</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="14">
         <v>42788</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="7">
         <v>29</v>
       </c>
       <c r="F42">
@@ -3142,15 +3471,18 @@
         <v>219</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>152</v>
       </c>
       <c r="C43" s="2">
         <v>31.8</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I43" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="14">
         <v>42790</v>
       </c>
@@ -3161,15 +3493,24 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>156</v>
       </c>
       <c r="C45" s="2">
         <v>109</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I45" t="s">
+        <v>244</v>
+      </c>
+      <c r="J45">
+        <v>29</v>
+      </c>
+      <c r="K45" s="16">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="14">
         <v>42791</v>
       </c>
@@ -3179,27 +3520,48 @@
       <c r="C46" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I46" t="s">
+        <v>244</v>
+      </c>
+      <c r="J46">
+        <v>30</v>
+      </c>
+      <c r="K46" s="16"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="14">
         <v>42793</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B48" t="s">
+      <c r="I47" t="s">
+        <v>244</v>
+      </c>
+      <c r="J47">
+        <v>26</v>
+      </c>
+      <c r="K47" s="16"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B48" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="7">
         <v>26</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="I48" t="s">
+        <v>244</v>
+      </c>
+      <c r="J48">
+        <v>29</v>
+      </c>
+      <c r="K48" s="16"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="14">
         <v>42794</v>
       </c>
@@ -3209,8 +3571,15 @@
       <c r="C49" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="I49" t="s">
+        <v>244</v>
+      </c>
+      <c r="J49">
+        <v>30</v>
+      </c>
+      <c r="K49" s="16"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="14">
         <v>42796</v>
       </c>
@@ -3220,43 +3589,78 @@
       <c r="C50" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B51" t="s">
+      <c r="I50" t="s">
+        <v>244</v>
+      </c>
+      <c r="J50">
+        <v>28</v>
+      </c>
+      <c r="K50" s="16"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B51" s="9" t="s">
         <v>171</v>
       </c>
       <c r="C51" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="I51" t="s">
+        <v>244</v>
+      </c>
+      <c r="J51">
+        <v>29</v>
+      </c>
+      <c r="K51" s="16"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
         <v>172</v>
       </c>
       <c r="C52" s="2">
         <v>75.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="I52" t="s">
+        <v>244</v>
+      </c>
+      <c r="J52">
+        <v>28</v>
+      </c>
+      <c r="K52" s="16"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="14">
         <v>42798</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C53" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B54" t="s">
+      <c r="I53" t="s">
+        <v>244</v>
+      </c>
+      <c r="J53">
+        <v>29</v>
+      </c>
+      <c r="K53" s="16"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B54" s="15" t="s">
         <v>176</v>
       </c>
       <c r="C54" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="I54" t="s">
+        <v>244</v>
+      </c>
+      <c r="J54">
+        <v>28</v>
+      </c>
+      <c r="K54" s="16"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="14">
         <v>42800</v>
       </c>
@@ -3266,16 +3670,30 @@
       <c r="C55" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B56" t="s">
+      <c r="I55" t="s">
+        <v>244</v>
+      </c>
+      <c r="J55">
+        <v>30</v>
+      </c>
+      <c r="K55" s="16"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B56" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="7">
         <v>29</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="I56" t="s">
+        <v>244</v>
+      </c>
+      <c r="J56">
+        <v>28</v>
+      </c>
+      <c r="K56" s="16"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="14">
         <v>42801</v>
       </c>
@@ -3285,27 +3703,47 @@
       <c r="C57" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B58" t="s">
+      <c r="I57" t="s">
+        <v>244</v>
+      </c>
+      <c r="J57">
+        <v>29</v>
+      </c>
+      <c r="K57" s="16"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B58" s="9" t="s">
         <v>183</v>
       </c>
       <c r="C58" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="I58" t="s">
+        <v>244</v>
+      </c>
+      <c r="J58">
+        <v>29</v>
+      </c>
+      <c r="K58" s="16"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="14">
         <v>42802</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="I59" t="s">
+        <v>246</v>
+      </c>
+      <c r="J59">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="14">
         <v>42804</v>
       </c>
@@ -3315,32 +3753,56 @@
       <c r="C60" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="I60" t="s">
+        <v>247</v>
+      </c>
+      <c r="J60">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
         <v>191</v>
       </c>
       <c r="C61" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="I61" t="s">
+        <v>248</v>
+      </c>
+      <c r="J61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
         <v>192</v>
       </c>
       <c r="C62" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B63" t="s">
+      <c r="I62" t="s">
+        <v>249</v>
+      </c>
+      <c r="J62">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B63" s="9" t="s">
         <v>194</v>
       </c>
       <c r="C63" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="I63" t="s">
+        <v>250</v>
+      </c>
+      <c r="J63">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" s="14">
         <v>42807</v>
       </c>
@@ -3350,24 +3812,42 @@
       <c r="C64" s="2">
         <v>51.6</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B65" t="s">
+      <c r="I64" t="s">
+        <v>251</v>
+      </c>
+      <c r="J64">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B65" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B66" t="s">
+      <c r="I65" t="s">
+        <v>252</v>
+      </c>
+      <c r="J65">
+        <v>14750.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B66" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="7">
         <v>29</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="I66" t="s">
+        <v>253</v>
+      </c>
+      <c r="J66">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" s="14">
         <v>42808</v>
       </c>
@@ -3377,8 +3857,14 @@
       <c r="C67" s="2">
         <v>328</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="I67" t="s">
+        <v>254</v>
+      </c>
+      <c r="J67">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" s="14">
         <v>42810</v>
       </c>
@@ -3388,8 +3874,14 @@
       <c r="C68" s="2">
         <v>110</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="I68" t="s">
+        <v>255</v>
+      </c>
+      <c r="J68">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" s="14">
         <v>42811</v>
       </c>
@@ -3399,8 +3891,14 @@
       <c r="C69" s="2">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="I69" t="s">
+        <v>256</v>
+      </c>
+      <c r="J69">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="14">
         <v>42814</v>
       </c>
@@ -3410,78 +3908,132 @@
       <c r="C70" s="2">
         <v>133</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="I70" t="s">
+        <v>257</v>
+      </c>
+      <c r="J70">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
         <v>209</v>
       </c>
       <c r="C71" s="2">
         <v>3702</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B72" t="s">
+      <c r="I71" t="s">
+        <v>258</v>
+      </c>
+      <c r="J71">
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B72" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="I72" t="s">
+        <v>259</v>
+      </c>
+      <c r="J72">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
         <v>211</v>
       </c>
       <c r="C73" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="I73" t="s">
+        <v>260</v>
+      </c>
+      <c r="J73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" s="14">
         <v>42816</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="7">
         <v>29</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="I74" t="s">
+        <v>262</v>
+      </c>
+      <c r="J74">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" s="14">
         <v>42822</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B76" t="s">
+      <c r="I75" t="s">
+        <v>263</v>
+      </c>
+      <c r="J75">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B76" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="I76" t="s">
+        <v>264</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
         <v>220</v>
       </c>
       <c r="C77" s="2">
         <v>14750.7</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="I77" t="s">
+        <v>265</v>
+      </c>
+      <c r="J77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
         <v>223</v>
       </c>
       <c r="C78" s="2">
         <v>496</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="I78" t="s">
+        <v>266</v>
+      </c>
+      <c r="J78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" s="14">
         <v>42824</v>
       </c>
@@ -3491,49 +4043,156 @@
       <c r="C79" s="2">
         <v>33.799999999999997</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="I79" t="s">
+        <v>267</v>
+      </c>
+      <c r="J79">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" s="14">
         <v>42828</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C80" s="7">
+        <v>28</v>
+      </c>
+      <c r="I80" t="s">
+        <v>268</v>
+      </c>
+      <c r="J80">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B81" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C80" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B81" t="s">
-        <v>231</v>
-      </c>
-      <c r="C81" s="2">
+      <c r="C81" s="7">
         <v>29</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="I81" t="s">
+        <v>269</v>
+      </c>
+      <c r="J81">
+        <v>106.3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" s="14">
         <v>42830</v>
       </c>
       <c r="B82" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C82" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" s="14">
         <v>42831</v>
       </c>
       <c r="B83" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C83" s="2">
         <v>10</v>
       </c>
     </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A84" s="14">
+        <v>42835</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C84" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
+        <v>245</v>
+      </c>
+      <c r="C85" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A86" s="15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A87" s="14">
+        <v>42836</v>
+      </c>
+      <c r="B87" t="s">
+        <v>261</v>
+      </c>
+      <c r="C87" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
+        <v>275</v>
+      </c>
+      <c r="C88" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A89" s="14">
+        <v>42837</v>
+      </c>
+      <c r="B89" t="s">
+        <v>277</v>
+      </c>
+      <c r="C89" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
+        <v>278</v>
+      </c>
+      <c r="C90" s="2">
+        <v>299.39999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B91" t="s">
+        <v>283</v>
+      </c>
+      <c r="C91" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B92" t="s">
+        <v>284</v>
+      </c>
+      <c r="C92" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B93" t="s">
+        <v>285</v>
+      </c>
+      <c r="C93" s="2">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K45:K58"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/python/mywork/每日工作.xlsx
+++ b/python/mywork/每日工作.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="日常" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="295">
   <si>
     <t>上午</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1160,6 +1160,42 @@
   </si>
   <si>
     <t>乔梁优速10元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康老师带回来40套盘狗卡邱武广东，1狗缺盖子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王金金带回来12套盘狗卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋老师换了一个加密锁，原来蓝的碎了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速3张发票共24元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔梁饭钱27.5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这月剩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上月剩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆家长购买加密狗1个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交电费120元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1565,10 +1601,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:D197"/>
+  <dimension ref="A1:D205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+    <sheetView topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="B205" sqref="B205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2810,6 +2846,58 @@
     <row r="197" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B197" t="s">
         <v>285</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A198" s="13">
+        <v>42838</v>
+      </c>
+      <c r="B198" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B199" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B200" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A201" s="13">
+        <v>42842</v>
+      </c>
+      <c r="B201" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B202" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B203" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A204" s="13">
+        <v>42843</v>
+      </c>
+      <c r="B204" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A205" s="13">
+        <v>42844</v>
+      </c>
+      <c r="B205" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -2824,10 +2912,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92:B93"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3336,7 +3424,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
         <v>42776</v>
       </c>
@@ -3347,7 +3435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
         <v>42779</v>
       </c>
@@ -3358,7 +3446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
         <v>42780</v>
       </c>
@@ -3369,7 +3457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>112</v>
       </c>
@@ -3377,7 +3465,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="14">
         <v>42783</v>
       </c>
@@ -3388,7 +3476,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="14">
         <v>42786</v>
       </c>
@@ -3399,7 +3487,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>128</v>
       </c>
@@ -3418,8 +3506,14 @@
       <c r="J39" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L39" t="s">
+        <v>291</v>
+      </c>
+      <c r="M39" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="15" t="s">
         <v>273</v>
       </c>
@@ -3436,8 +3530,14 @@
         <f>H40-I40</f>
         <v>1095.2999999999993</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L40">
+        <v>809.8</v>
+      </c>
+      <c r="M40">
+        <v>285.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="14">
         <v>42787</v>
       </c>
@@ -3454,7 +3554,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="14">
         <v>42788</v>
       </c>
@@ -3471,7 +3571,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>152</v>
       </c>
@@ -3482,7 +3582,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" s="14">
         <v>42790</v>
       </c>
@@ -3493,7 +3593,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>156</v>
       </c>
@@ -3510,7 +3610,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="14">
         <v>42791</v>
       </c>
@@ -3528,7 +3628,7 @@
       </c>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="14">
         <v>42793</v>
       </c>
@@ -3546,7 +3646,7 @@
       </c>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B48" s="5" t="s">
         <v>163</v>
       </c>
@@ -4187,6 +4287,44 @@
       </c>
       <c r="C93" s="2">
         <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A94" s="14">
+        <v>42842</v>
+      </c>
+      <c r="B94" t="s">
+        <v>289</v>
+      </c>
+      <c r="C94" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B95" t="s">
+        <v>68</v>
+      </c>
+      <c r="C95" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B96" t="s">
+        <v>290</v>
+      </c>
+      <c r="C96" s="2">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97" s="14">
+        <v>42844</v>
+      </c>
+      <c r="B97" t="s">
+        <v>294</v>
+      </c>
+      <c r="C97" s="2">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/python/mywork/每日工作.xlsx
+++ b/python/mywork/每日工作.xlsx
@@ -14,15 +14,16 @@
   <sheets>
     <sheet name="日常" sheetId="1" r:id="rId1"/>
     <sheet name="报销" sheetId="2" r:id="rId2"/>
-    <sheet name="货物" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1对货" sheetId="4" r:id="rId4"/>
+    <sheet name="脚本" sheetId="5" r:id="rId3"/>
+    <sheet name="货物" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1对货" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="319">
   <si>
     <t>上午</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1196,6 +1197,101 @@
   </si>
   <si>
     <t>交电费120元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速4个家长发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座机801的15340116153缴费300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李娟优速仲老师寄货99元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨盒99，u盘1个29.9元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺丰给三个家长寄U盘，家长没有寄回来还</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密狗500个*7.2+100元雕刻，共3700元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上月剩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本月借款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2次借款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔梁28.5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海龙饭钱29元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋老师带回来山东31套产品，3poss机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110_英语鲁教版六年级上册，录点拨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112_英语人教版小学六年级下册，录点拨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：深圳市龙华新区东环一路东吴工业园6栋4楼 金田售后 0755-28760735-810切记--退换货务必用张纸备注上（网名或订单编号），方便我们查找！-----售后宣！地址：有变更的请注明自己新地址！</t>
+  </si>
+  <si>
+    <t>U盘厂家地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州吴平寄一套产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李娟给了2套产品盘狗卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖给南京家长一套货2980元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔梁饭钱29.5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海龙饭钱30元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速贵州家长寄加密狗12元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东U盘500个，14750元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速南京家长换加密狗杨8元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1206,7 +1302,7 @@
   <numFmts count="1">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1221,8 +1317,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1259,6 +1362,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8E8E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1272,7 +1381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1291,6 +1400,9 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1601,10 +1713,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:D205"/>
+  <dimension ref="A1:D222"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="B205" sqref="B205"/>
+    <sheetView topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="B222" sqref="B222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2898,6 +3010,106 @@
       </c>
       <c r="B205" t="s">
         <v>294</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A206" s="13">
+        <v>42845</v>
+      </c>
+      <c r="B206" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A207" s="13">
+        <v>42850</v>
+      </c>
+      <c r="B207" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B208" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B209" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B210" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B211" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B212" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B213" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B214" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B215" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A216" s="13">
+        <v>42852</v>
+      </c>
+      <c r="B216" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B217" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A218" s="13">
+        <v>42857</v>
+      </c>
+      <c r="B218" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B219" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B220" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B221" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A222" s="13">
+        <v>42858</v>
+      </c>
+      <c r="B222" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -2912,10 +3124,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:M97"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3606,7 +3818,7 @@
       <c r="J45">
         <v>29</v>
       </c>
-      <c r="K45" s="16">
+      <c r="K45" s="17">
         <v>402</v>
       </c>
     </row>
@@ -3626,7 +3838,7 @@
       <c r="J46">
         <v>30</v>
       </c>
-      <c r="K46" s="16"/>
+      <c r="K46" s="17"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="14">
@@ -3644,7 +3856,7 @@
       <c r="J47">
         <v>26</v>
       </c>
-      <c r="K47" s="16"/>
+      <c r="K47" s="17"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B48" s="5" t="s">
@@ -3659,7 +3871,7 @@
       <c r="J48">
         <v>29</v>
       </c>
-      <c r="K48" s="16"/>
+      <c r="K48" s="17"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="14">
@@ -3677,7 +3889,7 @@
       <c r="J49">
         <v>30</v>
       </c>
-      <c r="K49" s="16"/>
+      <c r="K49" s="17"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="14">
@@ -3695,7 +3907,7 @@
       <c r="J50">
         <v>28</v>
       </c>
-      <c r="K50" s="16"/>
+      <c r="K50" s="17"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B51" s="9" t="s">
@@ -3710,7 +3922,7 @@
       <c r="J51">
         <v>29</v>
       </c>
-      <c r="K51" s="16"/>
+      <c r="K51" s="17"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
@@ -3725,7 +3937,7 @@
       <c r="J52">
         <v>28</v>
       </c>
-      <c r="K52" s="16"/>
+      <c r="K52" s="17"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="14">
@@ -3743,7 +3955,7 @@
       <c r="J53">
         <v>29</v>
       </c>
-      <c r="K53" s="16"/>
+      <c r="K53" s="17"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B54" s="15" t="s">
@@ -3758,7 +3970,7 @@
       <c r="J54">
         <v>28</v>
       </c>
-      <c r="K54" s="16"/>
+      <c r="K54" s="17"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="14">
@@ -3776,7 +3988,7 @@
       <c r="J55">
         <v>30</v>
       </c>
-      <c r="K55" s="16"/>
+      <c r="K55" s="17"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B56" s="5" t="s">
@@ -3791,7 +4003,7 @@
       <c r="J56">
         <v>28</v>
       </c>
-      <c r="K56" s="16"/>
+      <c r="K56" s="17"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="14">
@@ -3809,7 +4021,7 @@
       <c r="J57">
         <v>29</v>
       </c>
-      <c r="K57" s="16"/>
+      <c r="K57" s="17"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B58" s="9" t="s">
@@ -3824,7 +4036,7 @@
       <c r="J58">
         <v>29</v>
       </c>
-      <c r="K58" s="16"/>
+      <c r="K58" s="17"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="14">
@@ -4226,6 +4438,12 @@
       <c r="A86" s="15" t="s">
         <v>274</v>
       </c>
+      <c r="E86" t="s">
+        <v>301</v>
+      </c>
+      <c r="F86">
+        <v>1095.3</v>
+      </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" s="14">
@@ -4237,6 +4455,12 @@
       <c r="C87" s="2">
         <v>51</v>
       </c>
+      <c r="E87" t="s">
+        <v>302</v>
+      </c>
+      <c r="F87">
+        <v>2000</v>
+      </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
@@ -4245,6 +4469,12 @@
       <c r="C88" s="2">
         <v>309</v>
       </c>
+      <c r="E88" t="s">
+        <v>303</v>
+      </c>
+      <c r="F88">
+        <v>19000</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89" s="14">
@@ -4325,6 +4555,114 @@
       </c>
       <c r="C97" s="2">
         <v>120</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98" s="14">
+        <v>42845</v>
+      </c>
+      <c r="B98" t="s">
+        <v>295</v>
+      </c>
+      <c r="C98" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99" s="14">
+        <v>42850</v>
+      </c>
+      <c r="B99" t="s">
+        <v>296</v>
+      </c>
+      <c r="C99" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B100" t="s">
+        <v>297</v>
+      </c>
+      <c r="C100" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B101" t="s">
+        <v>298</v>
+      </c>
+      <c r="C101" s="2">
+        <v>128.9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B102" t="s">
+        <v>300</v>
+      </c>
+      <c r="C102" s="2">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B103" t="s">
+        <v>305</v>
+      </c>
+      <c r="C103" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B104" t="s">
+        <v>304</v>
+      </c>
+      <c r="C104" s="2">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A105" s="14">
+        <v>42857</v>
+      </c>
+      <c r="B105" t="s">
+        <v>314</v>
+      </c>
+      <c r="C105" s="2">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B106" t="s">
+        <v>315</v>
+      </c>
+      <c r="C106" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B107" t="s">
+        <v>316</v>
+      </c>
+      <c r="C107" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B108" t="s">
+        <v>317</v>
+      </c>
+      <c r="C108" s="2">
+        <v>14750</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A109" s="14">
+        <v>42858</v>
+      </c>
+      <c r="B109" t="s">
+        <v>318</v>
+      </c>
+      <c r="C109" s="2">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4338,6 +4676,48 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="74.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>42851</v>
+      </c>
+      <c r="B1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B4"/>
@@ -4389,7 +4769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:B17"/>

--- a/python/mywork/每日工作.xlsx
+++ b/python/mywork/每日工作.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="日常" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="365">
   <si>
     <t>上午</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1216,10 +1216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>顺丰给三个家长寄U盘，家长没有寄回来还</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加密狗500个*7.2+100元雕刻，共3700元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1292,6 +1288,194 @@
   </si>
   <si>
     <t>优速南京家长换加密狗杨8元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺丰给三个家长寄U盘，家长没有寄回来，南京曹燕，南京何彦，临沂刘刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速北京、安徽宣传册，共16元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家长重装充话费50元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康老师福建带走48套狗盘卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南宁家长换加密狗优速12元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司域名缴费160.82元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家长寄回产品一套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海龙饭钱30元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔梁饭钱28元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18053910098刘刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13776665800何彦，同意退U盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13951702175曹燕，不同意退U盘，要退货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京，戴小萍，顾美华，退款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京家长购买未签收退回产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胶带7元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨老师带走210加密狗，寄走配套210卡盘收据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速山东2家长发票，共16元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电费120元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋老师带走河北80套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江刻盘50个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张家口家长邮寄加密狗优速8元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔梁饭钱27元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速昆山28套货，308元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆山家长顺丰一套货，用的北京马女士退的加个卡，2980元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租房定金500元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆山换加密狗，苏州发票，杭州发票，优速共24元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个家长换加密狗一共18元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海龙给家长寄硬盘优速12元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔梁饭钱28.5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仲老师无锡刻盘130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电费220元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>307电费60元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司域名60元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔梁饭钱29元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速给无锡家长寄产品11元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东购买收据154元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收据十本139元（未到货已取消）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李娟优速仲老师寄货99元（无单子）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔梁三个优速24元（是不是跟26号重复了？）是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔梁三个优速24元（与26号重复）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3给家长寄硬盘优速8元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租房定金500元（李娟转给我了，不用报销了）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座机801的15340116153缴费299.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺丰月结309元（貌似没有转给他）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1302,7 +1486,7 @@
   <numFmts count="1">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1323,6 +1507,13 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1381,7 +1572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1403,6 +1594,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1713,10 +1905,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:D222"/>
+  <dimension ref="A1:D265"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="B222" sqref="B222"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="B252" sqref="B252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3035,7 +3227,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B209" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.15">
@@ -3045,27 +3237,27 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B211" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B212" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B213" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B214" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B215" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.15">
@@ -3073,12 +3265,12 @@
         <v>42852</v>
       </c>
       <c r="B216" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B217" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.15">
@@ -3086,22 +3278,22 @@
         <v>42857</v>
       </c>
       <c r="B218" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B219" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B220" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B221" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.15">
@@ -3109,7 +3301,264 @@
         <v>42858</v>
       </c>
       <c r="B222" t="s">
-        <v>318</v>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A223" s="13">
+        <v>42859</v>
+      </c>
+      <c r="B223" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A224" s="13"/>
+      <c r="B224" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A225" s="13">
+        <v>42860</v>
+      </c>
+      <c r="B225" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B226" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A227" s="13">
+        <v>42863</v>
+      </c>
+      <c r="B227" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B228" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B229" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B230" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B231" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B232" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B233" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B234" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A235" s="13">
+        <v>42864</v>
+      </c>
+      <c r="B235" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B236" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B237" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A238" s="13">
+        <v>42865</v>
+      </c>
+      <c r="B238" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A239" s="13">
+        <v>42866</v>
+      </c>
+      <c r="B239" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B240" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A241" s="13">
+        <v>42870</v>
+      </c>
+      <c r="B241" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B242" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B243" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B244" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A245" s="13">
+        <v>42877</v>
+      </c>
+      <c r="B245" t="s">
+        <v>126</v>
+      </c>
+      <c r="C245" s="2"/>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B246" t="s">
+        <v>339</v>
+      </c>
+      <c r="C246" s="2"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B247" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B248" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A249" s="13">
+        <v>42881</v>
+      </c>
+      <c r="B249" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B250" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A251" s="13">
+        <v>42886</v>
+      </c>
+      <c r="B251" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B252" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B253" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B254" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B255" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B256" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A257" s="13">
+        <v>42888</v>
+      </c>
+      <c r="B257" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B258" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B259" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A260" s="13">
+        <v>42891</v>
+      </c>
+      <c r="B260" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B261" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B262" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B263" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B264" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A265" s="13">
+        <v>42892</v>
+      </c>
+      <c r="B265" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -3124,10 +3573,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:M140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3818,7 +4267,7 @@
       <c r="J45">
         <v>29</v>
       </c>
-      <c r="K45" s="17">
+      <c r="K45" s="18">
         <v>402</v>
       </c>
     </row>
@@ -3838,7 +4287,7 @@
       <c r="J46">
         <v>30</v>
       </c>
-      <c r="K46" s="17"/>
+      <c r="K46" s="18"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="14">
@@ -3856,7 +4305,7 @@
       <c r="J47">
         <v>26</v>
       </c>
-      <c r="K47" s="17"/>
+      <c r="K47" s="18"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B48" s="5" t="s">
@@ -3871,7 +4320,7 @@
       <c r="J48">
         <v>29</v>
       </c>
-      <c r="K48" s="17"/>
+      <c r="K48" s="18"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="14">
@@ -3889,7 +4338,7 @@
       <c r="J49">
         <v>30</v>
       </c>
-      <c r="K49" s="17"/>
+      <c r="K49" s="18"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="14">
@@ -3907,7 +4356,7 @@
       <c r="J50">
         <v>28</v>
       </c>
-      <c r="K50" s="17"/>
+      <c r="K50" s="18"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B51" s="9" t="s">
@@ -3922,7 +4371,7 @@
       <c r="J51">
         <v>29</v>
       </c>
-      <c r="K51" s="17"/>
+      <c r="K51" s="18"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
@@ -3937,7 +4386,7 @@
       <c r="J52">
         <v>28</v>
       </c>
-      <c r="K52" s="17"/>
+      <c r="K52" s="18"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="14">
@@ -3955,7 +4404,7 @@
       <c r="J53">
         <v>29</v>
       </c>
-      <c r="K53" s="17"/>
+      <c r="K53" s="18"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B54" s="15" t="s">
@@ -3970,7 +4419,7 @@
       <c r="J54">
         <v>28</v>
       </c>
-      <c r="K54" s="17"/>
+      <c r="K54" s="18"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="14">
@@ -3988,7 +4437,7 @@
       <c r="J55">
         <v>30</v>
       </c>
-      <c r="K55" s="17"/>
+      <c r="K55" s="18"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B56" s="5" t="s">
@@ -4003,7 +4452,7 @@
       <c r="J56">
         <v>28</v>
       </c>
-      <c r="K56" s="17"/>
+      <c r="K56" s="18"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="14">
@@ -4021,7 +4470,7 @@
       <c r="J57">
         <v>29</v>
       </c>
-      <c r="K57" s="17"/>
+      <c r="K57" s="18"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B58" s="9" t="s">
@@ -4036,7 +4485,7 @@
       <c r="J58">
         <v>29</v>
       </c>
-      <c r="K58" s="17"/>
+      <c r="K58" s="18"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="14">
@@ -4439,7 +4888,7 @@
         <v>274</v>
       </c>
       <c r="E86" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F86">
         <v>1095.3</v>
@@ -4456,21 +4905,18 @@
         <v>51</v>
       </c>
       <c r="E87" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F87">
         <v>2000</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B88" t="s">
-        <v>275</v>
-      </c>
-      <c r="C88" s="2">
-        <v>309</v>
+      <c r="B88" s="15" t="s">
+        <v>364</v>
       </c>
       <c r="E88" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F88">
         <v>19000</v>
@@ -4486,6 +4932,12 @@
       <c r="C89" s="2">
         <v>15</v>
       </c>
+      <c r="E89" t="s">
+        <v>362</v>
+      </c>
+      <c r="F89">
+        <v>21315.52</v>
+      </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
@@ -4496,7 +4948,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B91" t="s">
+      <c r="B91" s="9" t="s">
         <v>283</v>
       </c>
       <c r="C91" s="2">
@@ -4504,49 +4956,79 @@
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B92" t="s">
+      <c r="B92" s="5" t="s">
         <v>284</v>
       </c>
       <c r="C92" s="2">
         <v>29</v>
       </c>
+      <c r="E92" t="s">
+        <v>358</v>
+      </c>
+      <c r="F92">
+        <v>626</v>
+      </c>
+      <c r="G92">
+        <v>219</v>
+      </c>
+      <c r="H92">
+        <v>99</v>
+      </c>
+      <c r="I92">
+        <v>308</v>
+      </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B93" t="s">
+      <c r="B93" s="9" t="s">
         <v>285</v>
       </c>
       <c r="C93" s="2">
         <v>10</v>
+      </c>
+      <c r="E93" t="s">
+        <v>359</v>
+      </c>
+      <c r="F93">
+        <v>494</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94" s="14">
         <v>42842</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="9" t="s">
         <v>289</v>
       </c>
       <c r="C94" s="2">
         <v>24</v>
       </c>
+      <c r="F94">
+        <v>3700</v>
+      </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B95" t="s">
+      <c r="B95" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C95" s="2">
         <v>29</v>
       </c>
+      <c r="F95">
+        <v>14750</v>
+      </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B96" t="s">
+      <c r="B96" s="5" t="s">
         <v>290</v>
       </c>
       <c r="C96" s="2">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="F96">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="14">
         <v>42844</v>
       </c>
@@ -4556,113 +5038,430 @@
       <c r="C97" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="F97">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="14">
         <v>42845</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="9" t="s">
         <v>295</v>
       </c>
       <c r="C98" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="F98">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="14">
         <v>42850</v>
       </c>
       <c r="B99" t="s">
-        <v>296</v>
+        <v>363</v>
       </c>
       <c r="C99" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B100" t="s">
-        <v>297</v>
+        <v>299.39999999999998</v>
+      </c>
+      <c r="F99">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B100" s="17" t="s">
+        <v>355</v>
       </c>
       <c r="C100" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="F100">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
         <v>298</v>
       </c>
       <c r="C101" s="2">
         <v>128.9</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="F101">
+        <v>160.82</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C102" s="2">
         <v>3700</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B103" t="s">
-        <v>305</v>
+      <c r="F102">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B103" s="5" t="s">
+        <v>304</v>
       </c>
       <c r="C103" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B104" t="s">
-        <v>304</v>
+      <c r="F103">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B104" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="C104" s="2">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="F104">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="14">
         <v>42857</v>
       </c>
-      <c r="B105" t="s">
-        <v>314</v>
+      <c r="B105" s="5" t="s">
+        <v>313</v>
       </c>
       <c r="C105" s="2">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B106" t="s">
-        <v>315</v>
+      <c r="F105">
+        <v>299.39999999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B106" s="5" t="s">
+        <v>314</v>
       </c>
       <c r="C106" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B107" t="s">
-        <v>316</v>
+      <c r="F106">
+        <v>299.39999999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B107" s="9" t="s">
+        <v>315</v>
       </c>
       <c r="C107" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="F107">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B108" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C108" s="2">
         <v>14750</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="F108">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="14">
         <v>42858</v>
       </c>
-      <c r="B109" t="s">
-        <v>318</v>
+      <c r="B109" s="9" t="s">
+        <v>317</v>
       </c>
       <c r="C109" s="2">
         <v>8</v>
+      </c>
+      <c r="F109">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A110" s="14">
+        <v>42859</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C110" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B111" t="s">
+        <v>320</v>
+      </c>
+      <c r="C111" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112" s="14">
+        <v>42860</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C112" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A113" s="14">
+        <v>42863</v>
+      </c>
+      <c r="B113" t="s">
+        <v>323</v>
+      </c>
+      <c r="C113" s="2">
+        <v>160.82</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B114" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C114" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B115" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C115" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A116" s="14">
+        <v>42864</v>
+      </c>
+      <c r="B116" t="s">
+        <v>332</v>
+      </c>
+      <c r="C116" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A117" s="14">
+        <v>42865</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C117" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A118" s="14">
+        <v>42866</v>
+      </c>
+      <c r="B118" t="s">
+        <v>335</v>
+      </c>
+      <c r="C118" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A119" s="14">
+        <v>42870</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C119" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B120" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C120" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B121" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C121" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A122" s="14">
+        <v>42877</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C122" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B123" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C123" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B124" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="C124" s="2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A125" s="14">
+        <v>42881</v>
+      </c>
+      <c r="B125" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B126" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C126" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A127" s="14">
+        <v>42886</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C127" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B128" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C128" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B129" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C129" s="2">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B130" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="C130" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B131" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A132" s="14">
+        <v>42888</v>
+      </c>
+      <c r="B132" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B133" t="s">
+        <v>348</v>
+      </c>
+      <c r="C133" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B134" t="s">
+        <v>349</v>
+      </c>
+      <c r="C134" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A135" s="14">
+        <v>42891</v>
+      </c>
+      <c r="B135" t="s">
+        <v>350</v>
+      </c>
+      <c r="C135" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B136" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C136" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B137" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C137" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B138" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C138" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B139" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C139" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A140" s="14">
+        <v>42892</v>
+      </c>
+      <c r="B140" t="s">
+        <v>353</v>
+      </c>
+      <c r="C140" s="2">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4696,18 +5495,18 @@
         <v>42851</v>
       </c>
       <c r="B1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>308</v>
-      </c>
-      <c r="H1" t="s">
-        <v>310</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/python/mywork/每日工作.xlsx
+++ b/python/mywork/每日工作.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="369">
   <si>
     <t>上午</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1476,6 +1476,22 @@
   </si>
   <si>
     <t>顺丰月结309元（貌似没有转给他）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速三张发票+一个英语笔记本共36元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海龙饭钱27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔梁饭钱28.5元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1572,7 +1588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1595,6 +1611,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1905,10 +1922,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:D265"/>
+  <dimension ref="A1:D269"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="B252" sqref="B252"/>
+      <selection activeCell="B271" sqref="B271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3559,6 +3576,32 @@
       </c>
       <c r="B265" t="s">
         <v>353</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A266" s="18" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A267" s="13">
+        <v>42894</v>
+      </c>
+      <c r="B267" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A268" s="13">
+        <v>42898</v>
+      </c>
+      <c r="B268" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B269" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3573,10 +3616,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:M140"/>
+  <dimension ref="A1:M144"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143:B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4267,7 +4310,7 @@
       <c r="J45">
         <v>29</v>
       </c>
-      <c r="K45" s="18">
+      <c r="K45" s="19">
         <v>402</v>
       </c>
     </row>
@@ -4287,7 +4330,7 @@
       <c r="J46">
         <v>30</v>
       </c>
-      <c r="K46" s="18"/>
+      <c r="K46" s="19"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="14">
@@ -4305,7 +4348,7 @@
       <c r="J47">
         <v>26</v>
       </c>
-      <c r="K47" s="18"/>
+      <c r="K47" s="19"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B48" s="5" t="s">
@@ -4320,7 +4363,7 @@
       <c r="J48">
         <v>29</v>
       </c>
-      <c r="K48" s="18"/>
+      <c r="K48" s="19"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="14">
@@ -4338,7 +4381,7 @@
       <c r="J49">
         <v>30</v>
       </c>
-      <c r="K49" s="18"/>
+      <c r="K49" s="19"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="14">
@@ -4356,7 +4399,7 @@
       <c r="J50">
         <v>28</v>
       </c>
-      <c r="K50" s="18"/>
+      <c r="K50" s="19"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B51" s="9" t="s">
@@ -4371,7 +4414,7 @@
       <c r="J51">
         <v>29</v>
       </c>
-      <c r="K51" s="18"/>
+      <c r="K51" s="19"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
@@ -4386,7 +4429,7 @@
       <c r="J52">
         <v>28</v>
       </c>
-      <c r="K52" s="18"/>
+      <c r="K52" s="19"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="14">
@@ -4404,7 +4447,7 @@
       <c r="J53">
         <v>29</v>
       </c>
-      <c r="K53" s="18"/>
+      <c r="K53" s="19"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B54" s="15" t="s">
@@ -4419,7 +4462,7 @@
       <c r="J54">
         <v>28</v>
       </c>
-      <c r="K54" s="18"/>
+      <c r="K54" s="19"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="14">
@@ -4437,7 +4480,7 @@
       <c r="J55">
         <v>30</v>
       </c>
-      <c r="K55" s="18"/>
+      <c r="K55" s="19"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B56" s="5" t="s">
@@ -4452,7 +4495,7 @@
       <c r="J56">
         <v>28</v>
       </c>
-      <c r="K56" s="18"/>
+      <c r="K56" s="19"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="14">
@@ -4470,7 +4513,7 @@
       <c r="J57">
         <v>29</v>
       </c>
-      <c r="K57" s="18"/>
+      <c r="K57" s="19"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B58" s="9" t="s">
@@ -4485,7 +4528,7 @@
       <c r="J58">
         <v>29</v>
       </c>
-      <c r="K58" s="18"/>
+      <c r="K58" s="19"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="14">
@@ -5462,6 +5505,41 @@
       </c>
       <c r="C140" s="2">
         <v>154</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A141" s="15" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A142" s="14">
+        <v>42894</v>
+      </c>
+      <c r="B142" t="s">
+        <v>366</v>
+      </c>
+      <c r="C142" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A143" s="14">
+        <v>42898</v>
+      </c>
+      <c r="B143" t="s">
+        <v>367</v>
+      </c>
+      <c r="C143" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B144" t="s">
+        <v>368</v>
+      </c>
+      <c r="C144" s="2">
+        <v>28.5</v>
       </c>
     </row>
   </sheetData>

--- a/python/mywork/每日工作.xlsx
+++ b/python/mywork/每日工作.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="日常" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="脚本" sheetId="5" r:id="rId3"/>
     <sheet name="货物" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet1对货" sheetId="4" r:id="rId5"/>
+    <sheet name="客服放假" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="437">
   <si>
     <t>上午</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1492,6 +1493,277 @@
   </si>
   <si>
     <t>乔梁饭钱28.5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李娟给我换了9个加密狗，一共有12个了，发货减2，剩10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速给两个家长发货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速给10个家长寄卡片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝购买6个poss机电池，1个25.9，共155.4元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速给李江波寄poss机5个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速给两个家长发货，22元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速给10个家长寄卡片，80元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速给李江波寄poss机5个，9元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速给义乌厂家邮寄一套包装，11元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网费1380元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5月份清账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸质报销单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子报销单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7795-7464</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速讲师10个U盘和加密狗共68元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速广东东莞刘小姐112个加密狗共15元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上月剩余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电费200度*1.2元，水费200元，共440元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑电话300元，迁机185元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公用品京东281.2元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给李娟报销山东运费120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修锁300元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存条两个，一共418元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海龙13.5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速给上海家长寄硬盘8元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速上海家长换加密狗8元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔梁饭钱28元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月份清账</t>
+  </si>
+  <si>
+    <t>6月份清账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速北京讲师6元，32G盘+狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4块南孚电池10元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔梁饭钱30元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速给邓老师寄两盒东西8元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速家长上海硬盘8元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ会员114元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微云会员114元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速两个家长U盘共20元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信公众号审核300元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电费500度，600元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速家长U盘山东，广东共18元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速家长U盘河北，广东共18元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北杜维娟家长购买一套软件已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋老师的兼职讲师寄回来1U盘1加密狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海龙饭钱14.5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速青岛家长换U盘8元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔梁饭钱29元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速广东发票10元，南京加密狗8元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝6000加密狗43140元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调休人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海龙饭钱15元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速云南换加密狗12元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔梁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1922,10 +2194,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:D269"/>
+  <dimension ref="A1:D315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="B271" sqref="B271"/>
+    <sheetView topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="B315" sqref="B315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3602,6 +3874,293 @@
     <row r="269" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B269" t="s">
         <v>368</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A270" s="13">
+        <v>42899</v>
+      </c>
+      <c r="B270" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B271" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B272" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B273" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B274" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A275" s="13">
+        <v>42900</v>
+      </c>
+      <c r="B275" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A276" s="13">
+        <v>42902</v>
+      </c>
+      <c r="B276" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A277" s="13">
+        <v>42905</v>
+      </c>
+      <c r="B277" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B278" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B279" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B280" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B281" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A282" s="13">
+        <v>42906</v>
+      </c>
+      <c r="B282" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A283" s="13">
+        <v>42907</v>
+      </c>
+      <c r="B283" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A284" s="13">
+        <v>42909</v>
+      </c>
+      <c r="B284" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A285" s="13">
+        <v>42912</v>
+      </c>
+      <c r="B285" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B286" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B287" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B288" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A289" s="13">
+        <v>42914</v>
+      </c>
+      <c r="B289" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B290" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A291" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A292" s="13">
+        <v>42916</v>
+      </c>
+      <c r="B292" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A293" s="13">
+        <v>42919</v>
+      </c>
+      <c r="B293" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B294" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B295" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A296" s="13">
+        <v>42920</v>
+      </c>
+      <c r="B296" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B297" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A298" s="13">
+        <v>42926</v>
+      </c>
+      <c r="B298" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B299" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B300" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B301" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B302" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B303" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A304" s="13">
+        <v>42927</v>
+      </c>
+      <c r="B304" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B305" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A306" s="13">
+        <v>42929</v>
+      </c>
+      <c r="B306" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A307" s="13">
+        <v>42933</v>
+      </c>
+      <c r="B307" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B308" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B309" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B310" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A311" s="13">
+        <v>42936</v>
+      </c>
+      <c r="B311" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B312" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B313" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A314" s="13">
+        <v>42940</v>
+      </c>
+      <c r="B314" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A315" s="13">
+        <v>42941</v>
+      </c>
+      <c r="B315" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -3616,10 +4175,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:M144"/>
+  <dimension ref="A1:N187"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143:B144"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4060,6 +4619,9 @@
       <c r="F27">
         <v>7464</v>
       </c>
+      <c r="G27" t="s">
+        <v>381</v>
+      </c>
       <c r="I27" s="9" t="s">
         <v>132</v>
       </c>
@@ -4077,6 +4639,12 @@
       <c r="C28" s="6">
         <v>40</v>
       </c>
+      <c r="F28">
+        <v>7421.5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>382</v>
+      </c>
       <c r="I28" s="12" t="s">
         <v>133</v>
       </c>
@@ -4094,6 +4662,15 @@
       <c r="C29" s="8">
         <v>29</v>
       </c>
+      <c r="E29" t="s">
+        <v>383</v>
+      </c>
+      <c r="F29">
+        <v>331</v>
+      </c>
+      <c r="G29" t="s">
+        <v>384</v>
+      </c>
       <c r="I29" s="12" t="s">
         <v>133</v>
       </c>
@@ -4237,7 +4814,7 @@
       <c r="L40">
         <v>809.8</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="15">
         <v>285.5</v>
       </c>
     </row>
@@ -4257,6 +4834,9 @@
       <c r="G41" t="s">
         <v>219</v>
       </c>
+      <c r="M41">
+        <v>331</v>
+      </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="14">
@@ -4989,6 +5569,13 @@
       <c r="C90" s="2">
         <v>299.39999999999998</v>
       </c>
+      <c r="E90" t="s">
+        <v>369</v>
+      </c>
+      <c r="F90">
+        <f>F89-F88-F87-F86</f>
+        <v>-779.77999999999952</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B91" s="9" t="s">
@@ -5408,7 +5995,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B129" s="5" t="s">
         <v>346</v>
       </c>
@@ -5416,7 +6003,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B130" s="9" t="s">
         <v>344</v>
       </c>
@@ -5424,12 +6011,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B131" s="9" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A132" s="14">
         <v>42888</v>
       </c>
@@ -5437,7 +6024,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B133" t="s">
         <v>348</v>
       </c>
@@ -5445,7 +6032,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B134" t="s">
         <v>349</v>
       </c>
@@ -5453,7 +6040,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A135" s="14">
         <v>42891</v>
       </c>
@@ -5464,7 +6051,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B136" s="5" t="s">
         <v>95</v>
       </c>
@@ -5472,7 +6059,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B137" s="5" t="s">
         <v>351</v>
       </c>
@@ -5480,7 +6067,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B138" s="9" t="s">
         <v>352</v>
       </c>
@@ -5488,7 +6075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B139" s="9" t="s">
         <v>360</v>
       </c>
@@ -5496,7 +6083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A140" s="14">
         <v>42892</v>
       </c>
@@ -5507,39 +6094,576 @@
         <v>154</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A141" s="15" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+        <v>380</v>
+      </c>
+      <c r="E141" t="s">
+        <v>388</v>
+      </c>
+      <c r="F141">
+        <v>779.78</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A142" s="14">
         <v>42894</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="9" t="s">
         <v>366</v>
       </c>
       <c r="C142" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E142" t="s">
+        <v>387</v>
+      </c>
+      <c r="F142">
+        <v>3500</v>
+      </c>
+      <c r="I142" t="s">
+        <v>399</v>
+      </c>
+      <c r="J142">
+        <v>257</v>
+      </c>
+      <c r="K142" t="s">
+        <v>400</v>
+      </c>
+      <c r="L142">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A143" s="14">
         <v>42898</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="5" t="s">
         <v>367</v>
       </c>
       <c r="C143" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B144" t="s">
+      <c r="E143" t="s">
+        <v>402</v>
+      </c>
+      <c r="F143">
+        <v>3992.6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B144" s="5" t="s">
         <v>368</v>
       </c>
       <c r="C144" s="2">
         <v>28.5</v>
+      </c>
+      <c r="E144" t="s">
+        <v>403</v>
+      </c>
+      <c r="F144">
+        <f>F141+F142-F143</f>
+        <v>287.17999999999984</v>
+      </c>
+      <c r="I144" t="s">
+        <v>399</v>
+      </c>
+      <c r="J144">
+        <v>8</v>
+      </c>
+      <c r="K144" t="s">
+        <v>400</v>
+      </c>
+      <c r="L144">
+        <v>28.5</v>
+      </c>
+      <c r="M144" t="s">
+        <v>401</v>
+      </c>
+      <c r="N144">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A145" s="14">
+        <v>42899</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C145" s="2">
+        <v>22</v>
+      </c>
+      <c r="J145">
+        <v>8</v>
+      </c>
+      <c r="L145">
+        <v>27</v>
+      </c>
+      <c r="N145">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B146" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="C146" s="2">
+        <v>80</v>
+      </c>
+      <c r="J146">
+        <v>8</v>
+      </c>
+      <c r="L146">
+        <v>29</v>
+      </c>
+      <c r="N146">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B147" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C147" s="2">
+        <v>9</v>
+      </c>
+      <c r="J147">
+        <v>12</v>
+      </c>
+      <c r="L147">
+        <v>30</v>
+      </c>
+      <c r="N147">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B148" t="s">
+        <v>373</v>
+      </c>
+      <c r="C148" s="2">
+        <v>155.4</v>
+      </c>
+      <c r="J148">
+        <v>11</v>
+      </c>
+      <c r="L148">
+        <v>13.5</v>
+      </c>
+      <c r="N148">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A149" s="14">
+        <v>42900</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C149" s="2">
+        <v>11</v>
+      </c>
+      <c r="J149">
+        <v>11</v>
+      </c>
+      <c r="L149">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A150" s="14">
+        <v>42902</v>
+      </c>
+      <c r="B150" t="s">
+        <v>379</v>
+      </c>
+      <c r="C150" s="2">
+        <v>1380</v>
+      </c>
+      <c r="J150">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A151" s="14">
+        <v>42905</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C151" s="2">
+        <v>68</v>
+      </c>
+      <c r="J151">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B152" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C152" s="2">
+        <v>15</v>
+      </c>
+      <c r="J152">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B153" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C153" s="2">
+        <v>30</v>
+      </c>
+      <c r="J153">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B154" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C154" s="2">
+        <v>29</v>
+      </c>
+      <c r="J154">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B155" t="s">
+        <v>389</v>
+      </c>
+      <c r="C155" s="2">
+        <v>440</v>
+      </c>
+      <c r="J155">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A156" s="14">
+        <v>42906</v>
+      </c>
+      <c r="B156" t="s">
+        <v>390</v>
+      </c>
+      <c r="C156" s="2">
+        <v>485</v>
+      </c>
+      <c r="J156">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A157" s="14">
+        <v>42907</v>
+      </c>
+      <c r="B157" t="s">
+        <v>391</v>
+      </c>
+      <c r="C157" s="2">
+        <v>281.2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A158" s="14">
+        <v>42909</v>
+      </c>
+      <c r="B158" t="s">
+        <v>392</v>
+      </c>
+      <c r="C158" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A159" s="14">
+        <v>42912</v>
+      </c>
+      <c r="B159" t="s">
+        <v>393</v>
+      </c>
+      <c r="C159" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B160" t="s">
+        <v>394</v>
+      </c>
+      <c r="C160" s="2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B161" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C161" s="2">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B162" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C162" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A163" s="14">
+        <v>42914</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="C163" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B164" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C164" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A165" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E165" t="s">
+        <v>388</v>
+      </c>
+      <c r="F165">
+        <v>287.18</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A166" s="14">
+        <v>42916</v>
+      </c>
+      <c r="B166" t="s">
+        <v>406</v>
+      </c>
+      <c r="C166" s="2">
+        <v>6</v>
+      </c>
+      <c r="E166" t="s">
+        <v>219</v>
+      </c>
+      <c r="F166">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A167" s="14">
+        <v>42919</v>
+      </c>
+      <c r="B167" t="s">
+        <v>407</v>
+      </c>
+      <c r="C167" s="2">
+        <v>10</v>
+      </c>
+      <c r="E167" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B168" t="s">
+        <v>95</v>
+      </c>
+      <c r="C168" s="2">
+        <v>29</v>
+      </c>
+      <c r="E168" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B169" t="s">
+        <v>408</v>
+      </c>
+      <c r="C169" s="2">
+        <v>30</v>
+      </c>
+      <c r="E169" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A170" s="14">
+        <v>42920</v>
+      </c>
+      <c r="B170" t="s">
+        <v>409</v>
+      </c>
+      <c r="C170" s="2">
+        <v>8</v>
+      </c>
+      <c r="E170" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B171" t="s">
+        <v>410</v>
+      </c>
+      <c r="C171" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A172" s="14">
+        <v>42926</v>
+      </c>
+      <c r="B172" t="s">
+        <v>411</v>
+      </c>
+      <c r="C172" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B173" t="s">
+        <v>412</v>
+      </c>
+      <c r="C173" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B174" t="s">
+        <v>413</v>
+      </c>
+      <c r="C174" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B175" t="s">
+        <v>346</v>
+      </c>
+      <c r="C175" s="2">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B176" t="s">
+        <v>68</v>
+      </c>
+      <c r="C176" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B177" t="s">
+        <v>414</v>
+      </c>
+      <c r="C177" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A178" s="14">
+        <v>42927</v>
+      </c>
+      <c r="B178" t="s">
+        <v>415</v>
+      </c>
+      <c r="C178" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B179" t="s">
+        <v>416</v>
+      </c>
+      <c r="C179" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A180" s="14">
+        <v>42929</v>
+      </c>
+      <c r="B180" t="s">
+        <v>417</v>
+      </c>
+      <c r="C180" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A181" s="14">
+        <v>42933</v>
+      </c>
+      <c r="B181" t="s">
+        <v>420</v>
+      </c>
+      <c r="C181" s="2">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B182" t="s">
+        <v>421</v>
+      </c>
+      <c r="C182" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A183" s="14">
+        <v>42936</v>
+      </c>
+      <c r="B183" t="s">
+        <v>422</v>
+      </c>
+      <c r="C183" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B184" t="s">
+        <v>423</v>
+      </c>
+      <c r="C184" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B185" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A186" s="14">
+        <v>42940</v>
+      </c>
+      <c r="B186" t="s">
+        <v>431</v>
+      </c>
+      <c r="C186" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A187" s="14">
+        <v>42941</v>
+      </c>
+      <c r="B187" t="s">
+        <v>434</v>
+      </c>
+      <c r="C187" s="2">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -5774,4 +6898,84 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>42931</v>
+      </c>
+      <c r="B9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>42935</v>
+      </c>
+      <c r="B10" t="s">
+        <v>429</v>
+      </c>
+      <c r="C10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>42938</v>
+      </c>
+      <c r="B11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C11" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>42939</v>
+      </c>
+      <c r="B12" t="s">
+        <v>425</v>
+      </c>
+      <c r="C12" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>42942</v>
+      </c>
+      <c r="B13" t="s">
+        <v>435</v>
+      </c>
+      <c r="C13" t="s">
+        <v>436</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>
--- a/python/mywork/每日工作.xlsx
+++ b/python/mywork/每日工作.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="日常" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="529">
   <si>
     <t>上午</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1764,6 +1764,374 @@
   </si>
   <si>
     <t>乔梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔梁饭钱15元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速4个青岛家长发票32元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大桶水200元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速给康老师河北2个宣传册7元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蟑螂药25元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">乔梁 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速杭州寄硬盘家长8元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔梁饭钱13元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速家长U盘凯西8元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速海南家长加密狗12元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速厦门家长加密狗10元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔梁饭钱15元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海龙饭钱29.5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速甘肃兰州寄U盘12元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码卡1680元，24盒*250张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他开销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东购买硬盘329元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职91元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职88元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职48元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速临沂家长寄U盘8元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康老师拿走一本语文笔记本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东买收据100本，184元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热敏纸59.5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少一个8元单子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月份清账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差45.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月份结余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋老师邮寄4个32G盘，4个加密狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池一板10元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速山东U盘8元，广东U盘10元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职82.2+104元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德邦河南30收据5卷纸到付17元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王金金安能物流11箱包装到付300元王金金已给</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德邦河南2POS机到付12元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职98.1元，110.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58买简历224元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德邦福建500小升初67元到付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王金金取80卡盘狗，20本收据，2POS机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许玫讲师拿走一个加密狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给李娟转账200义乌寄空盒子到廊坊产生的物流费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东购买热敏纸，收据10套，剪刀，本子2套，笔2套，橡皮筋386.5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝纸箱60个，33.4元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服一白电话13301083548充话费100元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔梁饭钱30元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海龙饭钱30元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德邦李娟POS机卷纸收据12元到付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速长沙小册子500本72元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德邦河北物流三箱包装到付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东小推车208元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东胶带4卷20元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔梁8.13饭补13元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投影电源线20元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓亚拿走一个加密狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康老师寄回1个加密狗和U盘，给了另一个讲师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7号电池10元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北邮寄1POS机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张大伟拿走1各加密狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速北京换u盘，福建发票共16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康炜陈亮讲师快递费15元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21号康老师王婷讲师快递费5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职群红包20元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400缴费1000元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓亚拿走一个北京版本U盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职客服1，9小时135元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职客服2,9.5小时190元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职客服1，,9.5小时142.5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职客服2,9小时180元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职客服1，9.5小时142.5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂家邮寄3000盘，另外刻前坏203个，检测坏43个，附带1盘1狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速两个家长，贵州12元，另一个6元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海龙饭钱30元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔梁饭钱30元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾建伟饭钱30元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋老师拿走100U盘检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张培兴带走4个U盘上门安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京家长高红建寄回1个U盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京家长杨建寄回1个U盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东寄走80套盘狗卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电费500度，600元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1804,7 +2172,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1847,6 +2215,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1860,7 +2234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1884,6 +2258,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2194,10 +2569,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:D315"/>
+  <dimension ref="A1:D391"/>
   <sheetViews>
-    <sheetView topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="B315" sqref="B315"/>
+    <sheetView topLeftCell="A367" workbookViewId="0">
+      <selection activeCell="B391" sqref="B391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4161,6 +4536,464 @@
       </c>
       <c r="B315" t="s">
         <v>434</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A316" s="13">
+        <v>42943</v>
+      </c>
+      <c r="B316" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B317" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A318" s="13">
+        <v>42944</v>
+      </c>
+      <c r="B318" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B319" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A320" s="13">
+        <v>42947</v>
+      </c>
+      <c r="B320" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A321" s="13">
+        <v>42948</v>
+      </c>
+      <c r="B321" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A322" s="13">
+        <v>42949</v>
+      </c>
+      <c r="B322" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A323" s="13">
+        <v>42950</v>
+      </c>
+      <c r="B323" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A324" s="13">
+        <v>42951</v>
+      </c>
+      <c r="B324" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B325" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A326" s="13">
+        <v>42953</v>
+      </c>
+      <c r="B326" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B327" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A328" s="13">
+        <v>42954</v>
+      </c>
+      <c r="B328" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A329" s="13">
+        <v>42956</v>
+      </c>
+      <c r="B329" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A330" s="13">
+        <v>42956</v>
+      </c>
+      <c r="B330" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B331" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B332" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B333" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B334" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A335" s="13">
+        <v>42960</v>
+      </c>
+      <c r="B335" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B336" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B337" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A338" s="13">
+        <v>42961</v>
+      </c>
+      <c r="B338" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B339" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B340" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A341" s="15" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A342" s="13">
+        <v>42962</v>
+      </c>
+      <c r="B342" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B343" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B344" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A345" s="13">
+        <v>42963</v>
+      </c>
+      <c r="B345" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B346" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B347" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B348" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A349" s="13">
+        <v>42964</v>
+      </c>
+      <c r="B349" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B350" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B351" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A352" s="13">
+        <v>42965</v>
+      </c>
+      <c r="B352" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B353" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B354" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B355" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A356" s="13">
+        <v>42968</v>
+      </c>
+      <c r="B356" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B357" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B358" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B359" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B360" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B361" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B362" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B363" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B364" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A365" s="13">
+        <v>42969</v>
+      </c>
+      <c r="B365" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B366" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B367" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A368" s="13">
+        <v>42970</v>
+      </c>
+      <c r="B368" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B369" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B370" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B371" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A372" s="13">
+        <v>42972</v>
+      </c>
+      <c r="B372" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B373" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B374" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B375" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B376" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A377" s="13">
+        <v>42973</v>
+      </c>
+      <c r="B377" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B378" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A379" s="13">
+        <v>42974</v>
+      </c>
+      <c r="B379" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B380" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A381" s="13">
+        <v>42975</v>
+      </c>
+      <c r="B381" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B382" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A383" s="13">
+        <v>42976</v>
+      </c>
+      <c r="B383" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B384" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B385" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B386" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A387" s="13">
+        <v>42977</v>
+      </c>
+      <c r="B387" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B388" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B389" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B390" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B391" t="s">
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -4175,10 +5008,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:N187"/>
+  <dimension ref="A1:N240"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="C188" sqref="C188"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="C241" sqref="C241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4188,6 +5021,7 @@
     <col min="3" max="3" width="11.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" customWidth="1"/>
     <col min="9" max="9" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4705,7 +5539,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
         <v>42776</v>
       </c>
@@ -4716,7 +5550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
         <v>42779</v>
       </c>
@@ -4727,7 +5561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
         <v>42780</v>
       </c>
@@ -4738,7 +5572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>112</v>
       </c>
@@ -4746,7 +5580,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="14">
         <v>42783</v>
       </c>
@@ -4757,7 +5591,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="14">
         <v>42786</v>
       </c>
@@ -4768,7 +5602,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>128</v>
       </c>
@@ -4794,7 +5628,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="15" t="s">
         <v>273</v>
       </c>
@@ -4818,7 +5652,7 @@
         <v>285.5</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="14">
         <v>42787</v>
       </c>
@@ -4837,8 +5671,11 @@
       <c r="M41">
         <v>331</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N41" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="14">
         <v>42788</v>
       </c>
@@ -4855,7 +5692,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>152</v>
       </c>
@@ -4866,7 +5703,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="14">
         <v>42790</v>
       </c>
@@ -4877,7 +5714,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>156</v>
       </c>
@@ -4890,11 +5727,11 @@
       <c r="J45">
         <v>29</v>
       </c>
-      <c r="K45" s="19">
+      <c r="K45" s="20">
         <v>402</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="14">
         <v>42791</v>
       </c>
@@ -4910,9 +5747,9 @@
       <c r="J46">
         <v>30</v>
       </c>
-      <c r="K46" s="19"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="K46" s="20"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="14">
         <v>42793</v>
       </c>
@@ -4928,9 +5765,9 @@
       <c r="J47">
         <v>26</v>
       </c>
-      <c r="K47" s="19"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="K47" s="20"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B48" s="5" t="s">
         <v>163</v>
       </c>
@@ -4943,7 +5780,7 @@
       <c r="J48">
         <v>29</v>
       </c>
-      <c r="K48" s="19"/>
+      <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="14">
@@ -4961,7 +5798,7 @@
       <c r="J49">
         <v>30</v>
       </c>
-      <c r="K49" s="19"/>
+      <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="14">
@@ -4979,7 +5816,7 @@
       <c r="J50">
         <v>28</v>
       </c>
-      <c r="K50" s="19"/>
+      <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B51" s="9" t="s">
@@ -4994,7 +5831,7 @@
       <c r="J51">
         <v>29</v>
       </c>
-      <c r="K51" s="19"/>
+      <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
@@ -5009,7 +5846,7 @@
       <c r="J52">
         <v>28</v>
       </c>
-      <c r="K52" s="19"/>
+      <c r="K52" s="20"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="14">
@@ -5027,7 +5864,7 @@
       <c r="J53">
         <v>29</v>
       </c>
-      <c r="K53" s="19"/>
+      <c r="K53" s="20"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B54" s="15" t="s">
@@ -5042,7 +5879,7 @@
       <c r="J54">
         <v>28</v>
       </c>
-      <c r="K54" s="19"/>
+      <c r="K54" s="20"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="14">
@@ -5060,7 +5897,7 @@
       <c r="J55">
         <v>30</v>
       </c>
-      <c r="K55" s="19"/>
+      <c r="K55" s="20"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B56" s="5" t="s">
@@ -5075,7 +5912,7 @@
       <c r="J56">
         <v>28</v>
       </c>
-      <c r="K56" s="19"/>
+      <c r="K56" s="20"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="14">
@@ -5093,7 +5930,7 @@
       <c r="J57">
         <v>29</v>
       </c>
-      <c r="K57" s="19"/>
+      <c r="K57" s="20"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B58" s="9" t="s">
@@ -5108,7 +5945,7 @@
       <c r="J58">
         <v>29</v>
       </c>
-      <c r="K58" s="19"/>
+      <c r="K58" s="20"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="14">
@@ -6399,7 +7236,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B161" s="5" t="s">
         <v>395</v>
       </c>
@@ -6407,7 +7244,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B162" s="9" t="s">
         <v>396</v>
       </c>
@@ -6415,7 +7252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A163" s="14">
         <v>42914</v>
       </c>
@@ -6426,16 +7263,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B164" s="5" t="s">
         <v>398</v>
       </c>
       <c r="C164" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A165" s="4" t="s">
+      <c r="G164" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A165" s="15" t="s">
         <v>405</v>
       </c>
       <c r="E165" t="s">
@@ -6444,12 +7284,27 @@
       <c r="F165">
         <v>287.18</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G165">
+        <v>47607.18</v>
+      </c>
+      <c r="H165" t="s">
+        <v>469</v>
+      </c>
+      <c r="I165">
+        <v>8</v>
+      </c>
+      <c r="J165" t="s">
+        <v>470</v>
+      </c>
+      <c r="K165">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A166" s="14">
         <v>42916</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="9" t="s">
         <v>406</v>
       </c>
       <c r="C166" s="2">
@@ -6461,117 +7316,225 @@
       <c r="F166">
         <v>2500</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H166">
+        <v>205</v>
+      </c>
+      <c r="I166">
+        <v>12</v>
+      </c>
+      <c r="J166">
+        <v>247.5</v>
+      </c>
+      <c r="K166">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A167" s="14">
         <v>42919</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="19" t="s">
         <v>407</v>
       </c>
       <c r="C167" s="2">
         <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B168" t="s">
+        <v>458</v>
+      </c>
+      <c r="F167">
+        <v>44820</v>
+      </c>
+      <c r="H167" t="s">
+        <v>471</v>
+      </c>
+      <c r="I167">
+        <v>10</v>
+      </c>
+      <c r="K167">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B168" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C168" s="2">
         <v>29</v>
       </c>
       <c r="E168" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B169" t="s">
+        <v>475</v>
+      </c>
+      <c r="F168">
+        <v>45.5</v>
+      </c>
+      <c r="I168">
+        <v>12</v>
+      </c>
+      <c r="K168">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B169" s="5" t="s">
         <v>408</v>
       </c>
       <c r="C169" s="2">
         <v>30</v>
       </c>
-      <c r="E169" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I169">
+        <v>8</v>
+      </c>
+      <c r="K169">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A170" s="14">
         <v>42920</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="9" t="s">
         <v>409</v>
       </c>
       <c r="C170" s="2">
         <v>8</v>
       </c>
-      <c r="E170" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B171" t="s">
+      <c r="I170">
+        <v>8</v>
+      </c>
+      <c r="K170">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B171" s="9" t="s">
         <v>410</v>
       </c>
       <c r="C171" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I171">
+        <v>7</v>
+      </c>
+      <c r="K171">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A172" s="14">
         <v>42926</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="19" t="s">
         <v>411</v>
       </c>
       <c r="C172" s="2">
         <v>114</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B173" t="s">
+      <c r="E172" t="s">
+        <v>432</v>
+      </c>
+      <c r="F172">
+        <v>43140</v>
+      </c>
+      <c r="G172">
+        <v>48151</v>
+      </c>
+      <c r="I172">
+        <v>8</v>
+      </c>
+      <c r="K172">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B173" s="19" t="s">
         <v>412</v>
       </c>
       <c r="C173" s="2">
         <v>114</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B174" t="s">
+      <c r="E173" t="s">
+        <v>433</v>
+      </c>
+      <c r="F173">
+        <v>1680</v>
+      </c>
+      <c r="I173">
+        <v>8</v>
+      </c>
+      <c r="K173">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B174" s="9" t="s">
         <v>413</v>
       </c>
       <c r="C174" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B175" t="s">
+      <c r="E174" t="s">
+        <v>469</v>
+      </c>
+      <c r="F174">
+        <v>213</v>
+      </c>
+      <c r="I174">
+        <v>8</v>
+      </c>
+      <c r="K174">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B175" s="5" t="s">
         <v>346</v>
       </c>
       <c r="C175" s="2">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B176" t="s">
+      <c r="E175" t="s">
+        <v>470</v>
+      </c>
+      <c r="F175">
+        <v>247.5</v>
+      </c>
+      <c r="I175">
+        <v>8</v>
+      </c>
+      <c r="K175">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B176" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C176" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B177" t="s">
+      <c r="E176" t="s">
+        <v>459</v>
+      </c>
+      <c r="F176">
+        <v>2870.5</v>
+      </c>
+      <c r="I176">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B177" s="19" t="s">
         <v>414</v>
       </c>
       <c r="C177" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="I177">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A178" s="14">
         <v>42927</v>
       </c>
@@ -6581,89 +7544,622 @@
       <c r="C178" s="2">
         <v>600</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B179" t="s">
+      <c r="I178">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B179" s="9" t="s">
         <v>416</v>
       </c>
       <c r="C179" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="I179">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A180" s="14">
         <v>42929</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="9" t="s">
         <v>417</v>
       </c>
       <c r="C180" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E180" t="s">
+        <v>272</v>
+      </c>
+      <c r="G180">
+        <f>G165-G172+45.5</f>
+        <v>-498.31999999999971</v>
+      </c>
+      <c r="I180">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A181" s="14">
         <v>42933</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="5" t="s">
         <v>420</v>
       </c>
       <c r="C181" s="2">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B182" t="s">
+      <c r="I181">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B182" s="9" t="s">
         <v>421</v>
       </c>
       <c r="C182" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="I182">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A183" s="14">
         <v>42936</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="5" t="s">
         <v>422</v>
       </c>
       <c r="C183" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B184" t="s">
+      <c r="I183">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B184" s="9" t="s">
         <v>423</v>
       </c>
       <c r="C184" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="I184">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B185" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="I185">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A186" s="14">
         <v>42940</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="5" t="s">
         <v>431</v>
       </c>
       <c r="C186" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="I186">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A187" s="14">
         <v>42941</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="9" t="s">
         <v>434</v>
       </c>
       <c r="C187" s="2">
         <v>12</v>
+      </c>
+      <c r="I187">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A188" s="14">
+        <v>42943</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C188" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B189" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C189" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A190" s="14">
+        <v>42944</v>
+      </c>
+      <c r="B190" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="C190" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B191" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C191" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A192" s="14">
+        <v>42947</v>
+      </c>
+      <c r="B192" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="C192" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A193" s="14">
+        <v>42948</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C193" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A194" s="14">
+        <v>42949</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C194" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A195" s="14">
+        <v>42950</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C195" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A196" s="14">
+        <v>42951</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="C196" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B197" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C197" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A198" s="14">
+        <v>42953</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C198" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B199" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C199" s="2">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A200" s="14">
+        <v>42954</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C200" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A201" s="14">
+        <v>42956</v>
+      </c>
+      <c r="B201" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A202" s="14">
+        <v>42956</v>
+      </c>
+      <c r="B202" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="C202" s="2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B203" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="C203" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B204" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="C204" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B205" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="C205" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B206" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="C206" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A207" s="14">
+        <v>42960</v>
+      </c>
+      <c r="B207" t="s">
+        <v>415</v>
+      </c>
+      <c r="C207" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B208" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C208" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A209" s="14">
+        <v>42961</v>
+      </c>
+      <c r="B209" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="C209" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B210" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="C210" s="2">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A211" s="15" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A212" s="14">
+        <v>42962</v>
+      </c>
+      <c r="B212" t="s">
+        <v>477</v>
+      </c>
+      <c r="C212" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B213" t="s">
+        <v>478</v>
+      </c>
+      <c r="C213" s="2">
+        <v>18</v>
+      </c>
+      <c r="E213" t="s">
+        <v>489</v>
+      </c>
+      <c r="F213">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B214" t="s">
+        <v>479</v>
+      </c>
+      <c r="C214" s="2">
+        <v>186.2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B215" t="s">
+        <v>483</v>
+      </c>
+      <c r="C215" s="2">
+        <v>208.5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A216" s="14">
+        <v>42964</v>
+      </c>
+      <c r="B216" t="s">
+        <v>484</v>
+      </c>
+      <c r="C216" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A217" s="14">
+        <v>42965</v>
+      </c>
+      <c r="B217" t="s">
+        <v>488</v>
+      </c>
+      <c r="C217" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B218" t="s">
+        <v>490</v>
+      </c>
+      <c r="C218" s="2">
+        <v>386.5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B219" t="s">
+        <v>491</v>
+      </c>
+      <c r="C219" s="2">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A220" s="14">
+        <v>42968</v>
+      </c>
+      <c r="B220" t="s">
+        <v>492</v>
+      </c>
+      <c r="C220" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B221" t="s">
+        <v>493</v>
+      </c>
+      <c r="C221" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B222" t="s">
+        <v>494</v>
+      </c>
+      <c r="C222" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B223" t="s">
+        <v>500</v>
+      </c>
+      <c r="C223" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B224" t="s">
+        <v>498</v>
+      </c>
+      <c r="C224" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B225" t="s">
+        <v>499</v>
+      </c>
+      <c r="C225" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B226" t="s">
+        <v>496</v>
+      </c>
+      <c r="C226" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A227" s="14">
+        <v>42969</v>
+      </c>
+      <c r="B227" t="s">
+        <v>501</v>
+      </c>
+      <c r="C227" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A228" s="14">
+        <v>42970</v>
+      </c>
+      <c r="B228" t="s">
+        <v>504</v>
+      </c>
+      <c r="C228" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A229" s="14">
+        <v>42971</v>
+      </c>
+      <c r="B229" t="s">
+        <v>507</v>
+      </c>
+      <c r="C229" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A230" s="14">
+        <v>42972</v>
+      </c>
+      <c r="B230" t="s">
+        <v>508</v>
+      </c>
+      <c r="C230" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B231" t="s">
+        <v>509</v>
+      </c>
+      <c r="C231" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B232" t="s">
+        <v>510</v>
+      </c>
+      <c r="C232" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B233" t="s">
+        <v>511</v>
+      </c>
+      <c r="C233" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A234" s="14">
+        <v>42974</v>
+      </c>
+      <c r="B234" t="s">
+        <v>517</v>
+      </c>
+      <c r="C234" s="2">
+        <v>142.5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B235" t="s">
+        <v>516</v>
+      </c>
+      <c r="C235" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A236" s="14">
+        <v>42976</v>
+      </c>
+      <c r="B236" t="s">
+        <v>519</v>
+      </c>
+      <c r="C236" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B237" t="s">
+        <v>520</v>
+      </c>
+      <c r="C237" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B238" t="s">
+        <v>521</v>
+      </c>
+      <c r="C238" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B239" t="s">
+        <v>522</v>
+      </c>
+      <c r="C239" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A240" s="14">
+        <v>42977</v>
+      </c>
+      <c r="B240" t="s">
+        <v>528</v>
+      </c>
+      <c r="C240" s="2">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -6902,10 +8398,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6918,59 +8414,103 @@
         <v>430</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>42921</v>
+      </c>
+      <c r="B2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>42928</v>
+      </c>
+      <c r="B3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>42931</v>
+      </c>
+      <c r="B4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>42935</v>
+      </c>
+      <c r="B5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>42938</v>
+      </c>
+      <c r="B6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>42939</v>
+      </c>
+      <c r="B7" t="s">
+        <v>425</v>
+      </c>
+      <c r="C7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>42942</v>
+      </c>
+      <c r="B8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C8" t="s">
+        <v>436</v>
+      </c>
+    </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>42931</v>
+        <v>42945</v>
       </c>
       <c r="B9" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="C9" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>42935</v>
+        <v>42946</v>
       </c>
       <c r="B10" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="C10" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>42938</v>
-      </c>
-      <c r="B11" t="s">
-        <v>426</v>
-      </c>
-      <c r="C11" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>42939</v>
-      </c>
-      <c r="B12" t="s">
-        <v>425</v>
-      </c>
-      <c r="C12" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>42942</v>
-      </c>
-      <c r="B13" t="s">
-        <v>435</v>
-      </c>
-      <c r="C13" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>

--- a/python/mywork/每日工作.xlsx
+++ b/python/mywork/每日工作.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="573">
   <si>
     <t>上午</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2127,11 +2127,187 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>山东寄走80套盘狗卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电费500度，600元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成老师拿走1加密狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廊坊成老师带走60套盘狗卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王金金要40套狗卡盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建要了50个U盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东寄走80套盘狗卡，补充坏盘用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邱武杨老师带走100盘，补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东120套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建200套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西宁150套，缺100狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山西150套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南400套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王金金带回来152套狗盘卡，少1张卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东寄回45套狗盘卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职客服周六8.5小时，170元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东寄回96盘，101狗，101卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职客服周日10小时，200元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建寄回48套狗盘卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐卫勇寄回171套狗盘卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王金金拿回40套狗盘卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔龙成老师带回83套狗盘卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司网站主机续费一年1489.2元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张培兴兼职500元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李娟寄回1POS机，29盘，2加密狗坏了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速寄发票和加密狗78元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建寄走120套狗盘卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东寄走220套狗盘卡（济宁120+济南100）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳U盘厂家给他寄去605盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳U盘厂家寄回来刻好的800U盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建发走50套狗盘卡，东芝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王金金拿走1蓝盘给通州上门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北寄回18套狗盘卡，杜维娟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速寄发票和2加密狗78元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密狗统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共705</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德邦到付山西古主任41元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄走邱武长沙330套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄走山西李娟50个盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄走孔龙银川200套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄走徐卫勇70套，加17个补发U盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王金金带走40套盘（白盘）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄走杜维娟120套（蓝盘）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄走邱武南宁120套（外延蓝盘）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄走阙志强补发30套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速鲍雪琼邮寄U盘8元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2569,10 +2745,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:D391"/>
+  <dimension ref="A1:D435"/>
   <sheetViews>
-    <sheetView topLeftCell="A367" workbookViewId="0">
-      <selection activeCell="B391" sqref="B391"/>
+    <sheetView topLeftCell="A406" workbookViewId="0">
+      <selection activeCell="B435" sqref="B435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4988,12 +5164,283 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B390" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B391" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A392" s="13">
+        <v>42979</v>
+      </c>
+      <c r="B392" t="s">
         <v>528</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B393" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B394" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B395" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B396" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B397" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B398" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B399" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B400" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B401" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A402" s="13">
+        <v>42981</v>
+      </c>
+      <c r="B402" t="s">
+        <v>556</v>
+      </c>
+      <c r="C402" t="s">
+        <v>560</v>
+      </c>
+      <c r="D402" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B403" t="s">
+        <v>539</v>
+      </c>
+      <c r="C403">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B404" t="s">
+        <v>558</v>
+      </c>
+      <c r="C404">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B405" t="s">
+        <v>540</v>
+      </c>
+      <c r="C405">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B406" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B407" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A408" s="13">
+        <v>42982</v>
+      </c>
+      <c r="B408" t="s">
+        <v>542</v>
+      </c>
+      <c r="C408">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B409" t="s">
+        <v>544</v>
+      </c>
+      <c r="C409">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B410" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="C410">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B411" t="s">
+        <v>545</v>
+      </c>
+      <c r="C411">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B412" t="s">
+        <v>546</v>
+      </c>
+      <c r="C412">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B413" t="s">
+        <v>547</v>
+      </c>
+      <c r="C413">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A414" s="13">
+        <v>42983</v>
+      </c>
+      <c r="B414" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B415" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B416" t="s">
+        <v>550</v>
+      </c>
+      <c r="C416">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B417" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B418" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B419" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B420" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B421" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A422" s="13">
+        <v>42984</v>
+      </c>
+      <c r="B422" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B423" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B424" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B425" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B426" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B427" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B428" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B429" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B430" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B431" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B432" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="433" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B433" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="434" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B434" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B435" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -5008,10 +5455,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:N240"/>
+  <dimension ref="A1:N250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="C241" sqref="C241"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="C251" sqref="C251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8156,10 +8603,105 @@
         <v>42977</v>
       </c>
       <c r="B240" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C240" s="2">
         <v>600</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A241" s="14">
+        <v>42981</v>
+      </c>
+      <c r="B241" t="s">
+        <v>541</v>
+      </c>
+      <c r="C241" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B242" t="s">
+        <v>543</v>
+      </c>
+      <c r="C242" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A243" s="14">
+        <v>42983</v>
+      </c>
+      <c r="B243" t="s">
+        <v>548</v>
+      </c>
+      <c r="C243" s="2">
+        <v>1489.2</v>
+      </c>
+      <c r="E243" t="s">
+        <v>571</v>
+      </c>
+      <c r="F243">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B244" t="s">
+        <v>549</v>
+      </c>
+      <c r="C244" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B245" t="s">
+        <v>551</v>
+      </c>
+      <c r="C245" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A246" s="14">
+        <v>42984</v>
+      </c>
+      <c r="B246" t="s">
+        <v>562</v>
+      </c>
+      <c r="C246" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B247" t="s">
+        <v>85</v>
+      </c>
+      <c r="C247" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B248" t="s">
+        <v>52</v>
+      </c>
+      <c r="C248" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B249" t="s">
+        <v>522</v>
+      </c>
+      <c r="C249" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B250" t="s">
+        <v>572</v>
+      </c>
+      <c r="C250" s="2">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/python/mywork/每日工作.xlsx
+++ b/python/mywork/每日工作.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="645">
   <si>
     <t>上午</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2308,6 +2308,294 @@
   </si>
   <si>
     <t>优速鲍雪琼邮寄U盘8元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电费200度*1.2元，240元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔梁加班饭钱15元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王金金带走60套狗盘卡，长盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺丰月结1117元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔龙寄回来150盘，150卡，50狗，5收据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴寄回来一套产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速湖南寄移动硬盘和换加密狗，9元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速发票山东7张56元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东购买收据10套，蟑螂药，皮筋2盒，黑彩墨盒362.34元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔梁晚餐补助15元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职2费用170元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门禁卡150元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速河北加密狗7元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周天杜维娟顺风车带走100套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到南宁退回120套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给邱武邮寄20个U盘，白色东芝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康老师带回来孔龙一个POS机说坏了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李娟寄回81加密狗，100U盘，50+28+5卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北徐卫勇寄回来52狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将南宁的120个东芝U盘寄给邱武长沙，另加130U盘，70狗，70卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长春 曹拿走100套，其中20个初二是绿色东芝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速河北加密狗7元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王金金拿走100套，长盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东大仲寄走50套，长盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东韶关邱武寄走200套，长盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浇花6个月420元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打车送顺丰快递30元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长春断货快递100套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南寄回来238盘（当地写的248）+25坏盘，272卡，273加密狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职9小时180元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职4小时80元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职1费用150元+50元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职130元+40元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买灯泡18元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速快递硬盘8元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾建伟加班6点到11点，五个小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速长春家长一套货14元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买POS机电池6块，35一块，共210元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海龙加班1.5小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾建伟饭钱30元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速寄发票7张50元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东顺丰邮寄2套狗盘卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔铿寄回来106狗，106盘，卡还没数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职2,8小时，120元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职1,6小时，120元+40元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职1，10小时，200元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李娟测盘带走100个，1个加密狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康老师带走50个盘检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给杜维娟准备30套包装，10套狗盘卡（张亭给发的，狗盘卡重新入库了）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江于成文4箱包装+1箱寄回来的产品43套，少一个U盘，德邦到付258元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板带走182盘检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黄重庆发走250套狗盘卡，15收据，2卷纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.10号优速王海龙发U盘8元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共3247盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海龙8.14饭钱15元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩亮饭钱30元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩亮饭钱30元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开通5号客服超级QQ228元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报销单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共花费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,9,10月份清账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职10小时，200元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职8小时，160元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加上2次兼职</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买POS机电池6块，35一块，共210元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开通5号客服超级QQ228元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2348,7 +2636,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2397,6 +2685,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2410,7 +2710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2435,6 +2735,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2745,16 +3048,17 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:D435"/>
+  <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="B435" sqref="B435"/>
+    <sheetView topLeftCell="A462" workbookViewId="0">
+      <selection activeCell="B498" sqref="B498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -5014,433 +5318,821 @@
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A365" s="13">
+      <c r="B365" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A366" s="13">
         <v>42969</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B366" t="s">
         <v>501</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B366" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B367" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B368" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A368" s="13">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A369" s="13">
         <v>42970</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B369" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B369" t="s">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B370" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B370" t="s">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B371" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B371" t="s">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B372" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A372" s="13">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A373" s="13">
         <v>42972</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B373" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B373" t="s">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B374" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B374" t="s">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B375" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B375" t="s">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B376" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B376" t="s">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B377" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A377" s="13">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A378" s="13">
         <v>42973</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B378" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B378" t="s">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B379" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A379" s="13">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A380" s="13">
         <v>42974</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B380" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B380" t="s">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B381" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A381" s="13">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A382" s="13">
         <v>42975</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B382" s="5" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B382" t="s">
+      <c r="C382" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B383" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A383" s="13">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A384" s="13">
         <v>42976</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B384" t="s">
         <v>520</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B384" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B385" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B386" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B387" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A387" s="13">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A388" s="13">
         <v>42977</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B388" t="s">
         <v>524</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B388" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B389" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B390" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B391" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B392" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A392" s="13">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A393" s="13">
         <v>42979</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B393" t="s">
         <v>528</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B393" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B394" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B395" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B396" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B397" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B398" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B399" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B400" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B401" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B402" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A402" s="13">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A403" s="13">
         <v>42981</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B403" t="s">
         <v>556</v>
       </c>
-      <c r="C402" t="s">
+      <c r="C403" t="s">
         <v>560</v>
       </c>
-      <c r="D402" t="s">
+      <c r="D403" t="s">
         <v>561</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B403" t="s">
-        <v>539</v>
-      </c>
-      <c r="C403">
-        <v>152</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B404" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="C404">
-        <v>18</v>
+        <v>152</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B405" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="C405">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B406" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="C406">
+        <v>45</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B407" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B408" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A408" s="13">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A409" s="13">
         <v>42982</v>
       </c>
-      <c r="B408" t="s">
+      <c r="B409" t="s">
         <v>542</v>
       </c>
-      <c r="C408">
+      <c r="C409">
         <v>101</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B409" t="s">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B410" t="s">
         <v>544</v>
       </c>
-      <c r="C409">
+      <c r="C410">
         <v>48</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B410" s="15" t="s">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B411" s="15" t="s">
         <v>540</v>
       </c>
-      <c r="C410">
+      <c r="C411">
         <v>45</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B411" t="s">
-        <v>545</v>
-      </c>
-      <c r="C411">
-        <v>171</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B412" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C412">
-        <v>40</v>
+        <v>171</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B413" t="s">
+        <v>546</v>
+      </c>
+      <c r="C413">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B414" t="s">
         <v>547</v>
       </c>
-      <c r="C413">
+      <c r="C414">
         <v>83</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A414" s="13">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A415" s="13">
         <v>42983</v>
       </c>
-      <c r="B414" t="s">
+      <c r="B415" t="s">
         <v>548</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B415" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B416" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B417" t="s">
         <v>550</v>
       </c>
-      <c r="C416">
+      <c r="C417">
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B417" t="s">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B418" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B418" t="s">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B419" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B419" t="s">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B420" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B420" t="s">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B421" s="5" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B421" t="s">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B422" s="5" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A422" s="13">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A423" s="13">
         <v>42984</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B423" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B423" t="s">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B424" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B424" t="s">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B425" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B425" t="s">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B426" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B426" t="s">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B427" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B427" t="s">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B428" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B428" t="s">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B429" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B429" t="s">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B430" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B430" t="s">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B431" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B431" t="s">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B432" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B432" t="s">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B433" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="433" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B433" t="s">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B434" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B434" t="s">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B435" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B435" t="s">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B436" t="s">
         <v>572</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A437" s="13">
+        <v>42985</v>
+      </c>
+      <c r="B437" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B438" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B439" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A440" s="13">
+        <v>42986</v>
+      </c>
+      <c r="B440" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B441" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B442" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B443" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B444" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B445" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B446" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A447" s="13"/>
+      <c r="B447" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A448" s="13">
+        <v>42988</v>
+      </c>
+      <c r="B448" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B449" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B450" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B451" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B452" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B453" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A454" s="13">
+        <v>42989</v>
+      </c>
+      <c r="B454" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B455" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A456" s="13">
+        <v>42990</v>
+      </c>
+      <c r="B456" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B457" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B458" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B459" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B460" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B461" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A462" s="13">
+        <v>42991</v>
+      </c>
+      <c r="B462" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B463" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B464" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B465" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B466" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A467" s="13"/>
+      <c r="B467" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A468" s="13">
+        <v>42993</v>
+      </c>
+      <c r="B468" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B469" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A470" s="13">
+        <v>42994</v>
+      </c>
+      <c r="B470" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B471" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A472" s="13">
+        <v>42996</v>
+      </c>
+      <c r="B472" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B473" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B474" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B475" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A476" s="13">
+        <v>42996</v>
+      </c>
+      <c r="B476" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A477" s="13">
+        <v>42997</v>
+      </c>
+      <c r="B477" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B478" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A479" s="13">
+        <v>42998</v>
+      </c>
+      <c r="B479" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A480" s="13">
+        <v>42999</v>
+      </c>
+      <c r="B480" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A481" s="13">
+        <v>43000</v>
+      </c>
+      <c r="B481" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A482" s="13">
+        <v>43001</v>
+      </c>
+      <c r="B482" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B483" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B484" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B485" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B486" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A487" s="13">
+        <v>43002</v>
+      </c>
+      <c r="B487" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B488" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B489" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A490" s="13">
+        <v>43003</v>
+      </c>
+      <c r="B490" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B491" s="20" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B492" s="20" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A493" s="13">
+        <v>43004</v>
+      </c>
+      <c r="B493" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A495" s="13">
+        <v>43018</v>
+      </c>
+      <c r="B495" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B496" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B497" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A498" s="13">
+        <v>43022</v>
+      </c>
+      <c r="B498" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A500" s="13">
+        <v>43023</v>
+      </c>
+      <c r="B500" s="20" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B501" s="20" t="s">
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -5455,16 +6147,16 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:N250"/>
+  <dimension ref="A1:N304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="C251" sqref="C251"/>
+    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="F286" sqref="F286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
@@ -6174,7 +6866,7 @@
       <c r="J45">
         <v>29</v>
       </c>
-      <c r="K45" s="20">
+      <c r="K45" s="23">
         <v>402</v>
       </c>
     </row>
@@ -6194,7 +6886,7 @@
       <c r="J46">
         <v>30</v>
       </c>
-      <c r="K46" s="20"/>
+      <c r="K46" s="23"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="14">
@@ -6212,7 +6904,7 @@
       <c r="J47">
         <v>26</v>
       </c>
-      <c r="K47" s="20"/>
+      <c r="K47" s="23"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B48" s="5" t="s">
@@ -6227,7 +6919,7 @@
       <c r="J48">
         <v>29</v>
       </c>
-      <c r="K48" s="20"/>
+      <c r="K48" s="23"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="14">
@@ -6245,7 +6937,7 @@
       <c r="J49">
         <v>30</v>
       </c>
-      <c r="K49" s="20"/>
+      <c r="K49" s="23"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="14">
@@ -6263,7 +6955,7 @@
       <c r="J50">
         <v>28</v>
       </c>
-      <c r="K50" s="20"/>
+      <c r="K50" s="23"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B51" s="9" t="s">
@@ -6278,7 +6970,7 @@
       <c r="J51">
         <v>29</v>
       </c>
-      <c r="K51" s="20"/>
+      <c r="K51" s="23"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
@@ -6293,7 +6985,7 @@
       <c r="J52">
         <v>28</v>
       </c>
-      <c r="K52" s="20"/>
+      <c r="K52" s="23"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="14">
@@ -6311,7 +7003,7 @@
       <c r="J53">
         <v>29</v>
       </c>
-      <c r="K53" s="20"/>
+      <c r="K53" s="23"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B54" s="15" t="s">
@@ -6326,7 +7018,7 @@
       <c r="J54">
         <v>28</v>
       </c>
-      <c r="K54" s="20"/>
+      <c r="K54" s="23"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="14">
@@ -6344,7 +7036,7 @@
       <c r="J55">
         <v>30</v>
       </c>
-      <c r="K55" s="20"/>
+      <c r="K55" s="23"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B56" s="5" t="s">
@@ -6359,7 +7051,7 @@
       <c r="J56">
         <v>28</v>
       </c>
-      <c r="K56" s="20"/>
+      <c r="K56" s="23"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="14">
@@ -6377,7 +7069,7 @@
       <c r="J57">
         <v>29</v>
       </c>
-      <c r="K57" s="20"/>
+      <c r="K57" s="23"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B58" s="9" t="s">
@@ -6392,7 +7084,7 @@
       <c r="J58">
         <v>29</v>
       </c>
-      <c r="K58" s="20"/>
+      <c r="K58" s="23"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="14">
@@ -8314,7 +9006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A209" s="14">
         <v>42961</v>
       </c>
@@ -8325,7 +9017,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B210" s="19" t="s">
         <v>468</v>
       </c>
@@ -8333,24 +9025,24 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A211" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A212" s="14">
         <v>42962</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="22" t="s">
         <v>477</v>
       </c>
       <c r="C212" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B213" t="s">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B213" s="9" t="s">
         <v>478</v>
       </c>
       <c r="C213" s="2">
@@ -8362,347 +9054,1119 @@
       <c r="F213">
         <v>4000</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B214" t="s">
+      <c r="H213" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B214" s="21" t="s">
         <v>479</v>
       </c>
       <c r="C214" s="2">
         <v>186.2</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B215" t="s">
+      <c r="H214">
+        <v>311</v>
+      </c>
+      <c r="I214">
+        <v>18</v>
+      </c>
+      <c r="K214" t="s">
+        <v>634</v>
+      </c>
+      <c r="L214">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B215" s="21" t="s">
         <v>483</v>
       </c>
       <c r="C215" s="2">
         <v>208.5</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H215">
+        <v>50</v>
+      </c>
+      <c r="I215">
+        <v>72</v>
+      </c>
+      <c r="L215">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A216" s="14">
         <v>42964</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="22" t="s">
         <v>484</v>
       </c>
       <c r="C216" s="2">
         <v>224</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H216">
+        <v>8</v>
+      </c>
+      <c r="I216">
+        <v>16</v>
+      </c>
+      <c r="L216">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A217" s="14">
         <v>42965</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="22" t="s">
         <v>488</v>
       </c>
       <c r="C217" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B218" t="s">
+      <c r="I217">
+        <v>18</v>
+      </c>
+      <c r="L217">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B218" s="22" t="s">
         <v>490</v>
       </c>
       <c r="C218" s="2">
         <v>386.5</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B219" t="s">
+      <c r="I218">
+        <v>78</v>
+      </c>
+      <c r="L218">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B219" s="22" t="s">
         <v>491</v>
       </c>
       <c r="C219" s="2">
         <v>33.4</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I219">
+        <v>8</v>
+      </c>
+      <c r="L219">
+        <v>362.34</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A220" s="14">
         <v>42968</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="22" t="s">
         <v>492</v>
       </c>
       <c r="C220" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B221" t="s">
+      <c r="I220">
+        <v>56</v>
+      </c>
+      <c r="L220">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B221" s="5" t="s">
         <v>493</v>
       </c>
       <c r="C221" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B222" t="s">
+      <c r="I221">
+        <v>9</v>
+      </c>
+      <c r="L221">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B222" s="5" t="s">
         <v>494</v>
       </c>
       <c r="C222" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B223" t="s">
+      <c r="I222">
+        <v>7</v>
+      </c>
+      <c r="L222">
+        <v>1489.2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B223" s="5" t="s">
         <v>500</v>
       </c>
       <c r="C223" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B224" t="s">
+      <c r="I223">
+        <v>7</v>
+      </c>
+      <c r="L223">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B224" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="C224" s="2">
+        <v>15</v>
+      </c>
+      <c r="I224">
+        <v>8</v>
+      </c>
+      <c r="L224">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B225" s="22" t="s">
         <v>498</v>
       </c>
-      <c r="C224" s="2">
+      <c r="C225" s="2">
         <v>208</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B225" t="s">
+      <c r="I225">
+        <v>14</v>
+      </c>
+      <c r="L225">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B226" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="C225" s="2">
+      <c r="C226" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B226" t="s">
+      <c r="L226">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B227" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="C226" s="2">
+      <c r="C227" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A227" s="14">
+      <c r="L227">
+        <v>386.5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A228" s="14">
         <v>42969</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B228" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="C227" s="2">
+      <c r="C228" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A228" s="14">
+      <c r="H228" t="s">
+        <v>612</v>
+      </c>
+      <c r="I228">
+        <v>13</v>
+      </c>
+      <c r="L228">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A229" s="14">
         <v>42970</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B229" s="22" t="s">
         <v>504</v>
       </c>
-      <c r="C228" s="2">
+      <c r="C229" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A229" s="14">
+      <c r="H229">
+        <v>523</v>
+      </c>
+      <c r="I229">
+        <v>15</v>
+      </c>
+      <c r="L229">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A230" s="14">
         <v>42971</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B230" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="C229" s="2">
+      <c r="C230" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A230" s="14">
+      <c r="I230">
+        <v>30</v>
+      </c>
+      <c r="L230">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A231" s="14">
         <v>42972</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B231" s="22" t="s">
         <v>508</v>
       </c>
-      <c r="C230" s="2">
+      <c r="C231" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B231" t="s">
+      <c r="I231">
+        <v>30</v>
+      </c>
+      <c r="L231">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B232" s="22" t="s">
         <v>509</v>
       </c>
-      <c r="C231" s="2">
+      <c r="C232" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B232" t="s">
+      <c r="I232">
+        <v>30</v>
+      </c>
+      <c r="L232">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B233" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="C232" s="2">
+      <c r="C233" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B233" t="s">
+      <c r="I233">
+        <v>30</v>
+      </c>
+      <c r="L233">
+        <v>3212.2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B234" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="C233" s="2">
+      <c r="C234" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A234" s="14">
+      <c r="I234">
+        <v>30</v>
+      </c>
+      <c r="K234" t="s">
+        <v>635</v>
+      </c>
+      <c r="L234">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A235" s="14">
+        <v>42973</v>
+      </c>
+      <c r="B235" s="21" t="s">
+        <v>513</v>
+      </c>
+      <c r="C235" s="2">
+        <v>135</v>
+      </c>
+      <c r="L235">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B236" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="C236" s="2">
+        <v>190</v>
+      </c>
+      <c r="L236">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A237" s="14">
         <v>42974</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B237" s="21" t="s">
         <v>517</v>
       </c>
-      <c r="C234" s="2">
+      <c r="C237" s="2">
         <v>142.5</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B235" t="s">
+      <c r="I237">
+        <v>30</v>
+      </c>
+      <c r="L237">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B238" s="21" t="s">
         <v>516</v>
       </c>
-      <c r="C235" s="2">
+      <c r="C238" s="2">
         <v>180</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A236" s="14">
+      <c r="I238">
+        <v>30</v>
+      </c>
+      <c r="L238">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A239" s="14">
         <v>42976</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B239" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="C236" s="2">
+      <c r="C239" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B237" t="s">
+      <c r="I239">
+        <v>30</v>
+      </c>
+      <c r="L239">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B240" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="C237" s="2">
+      <c r="C240" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B238" t="s">
+      <c r="I240">
+        <v>15</v>
+      </c>
+      <c r="L240">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B241" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C238" s="2">
+      <c r="C241" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B239" t="s">
+      <c r="I241">
+        <v>30</v>
+      </c>
+      <c r="L241">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B242" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C239" s="2">
+      <c r="C242" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A240" s="14">
+      <c r="I242">
+        <v>30</v>
+      </c>
+      <c r="L242">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A243" s="14">
         <v>42977</v>
       </c>
-      <c r="B240" t="s">
-        <v>527</v>
-      </c>
-      <c r="C240" s="2">
+      <c r="B243" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="C243" s="2">
         <v>600</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A241" s="14">
+      <c r="I243">
+        <v>30</v>
+      </c>
+      <c r="L243">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A244" s="14">
         <v>42981</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B244" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="C241" s="2">
+      <c r="C244" s="2">
         <v>170</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B242" t="s">
+      <c r="I244">
+        <v>30</v>
+      </c>
+      <c r="L244">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B245" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="C242" s="2">
+      <c r="C245" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A243" s="14">
+      <c r="I245">
+        <v>30</v>
+      </c>
+      <c r="L245">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A246" s="14">
         <v>42983</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B246" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="C243" s="2">
+      <c r="C246" s="2">
         <v>1489.2</v>
       </c>
-      <c r="E243" t="s">
+      <c r="E246" t="s">
         <v>571</v>
       </c>
-      <c r="F243">
+      <c r="F246">
         <v>5500</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B244" t="s">
+      <c r="I246">
+        <v>30</v>
+      </c>
+      <c r="L246">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B247" s="21" t="s">
         <v>549</v>
       </c>
-      <c r="C244" s="2">
+      <c r="C247" s="2">
         <v>500</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B245" t="s">
+      <c r="I247">
+        <v>30</v>
+      </c>
+      <c r="L247">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B248" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="C245" s="2">
+      <c r="C248" s="2">
         <v>78</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A246" s="14">
+      <c r="I248">
+        <v>30</v>
+      </c>
+      <c r="L248">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A249" s="14">
         <v>42984</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B249" s="22" t="s">
         <v>562</v>
       </c>
-      <c r="C246" s="2">
+      <c r="C249" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B247" t="s">
+      <c r="L249">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B250" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C247" s="2">
+      <c r="C250" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B248" t="s">
+      <c r="H250" t="s">
+        <v>633</v>
+      </c>
+      <c r="I250">
+        <v>82.2</v>
+      </c>
+      <c r="L250">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B251" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C248" s="2">
+      <c r="C251" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B249" t="s">
+      <c r="H251">
+        <v>3212.2</v>
+      </c>
+      <c r="I251">
+        <v>104</v>
+      </c>
+      <c r="L251">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B252" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C249" s="2">
+      <c r="C252" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B250" t="s">
+      <c r="H252">
+        <v>200</v>
+      </c>
+      <c r="I252">
+        <v>98.1</v>
+      </c>
+      <c r="L252">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B253" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="C250" s="2">
+      <c r="C253" s="2">
         <v>8</v>
       </c>
+      <c r="H253">
+        <v>160</v>
+      </c>
+      <c r="I253">
+        <v>110.4</v>
+      </c>
+      <c r="K253" t="s">
+        <v>636</v>
+      </c>
+      <c r="L253">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A254" s="14">
+        <v>42985</v>
+      </c>
+      <c r="B254" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="C254" s="2">
+        <v>240</v>
+      </c>
+      <c r="I254">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B255" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="I255">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A256" s="14">
+        <v>42986</v>
+      </c>
+      <c r="B256" s="22" t="s">
+        <v>576</v>
+      </c>
+      <c r="C256" s="2">
+        <v>1117</v>
+      </c>
+      <c r="I256">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B257" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="C257" s="2">
+        <v>56</v>
+      </c>
+      <c r="I257">
+        <v>142.5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B258" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="C258" s="2">
+        <v>9</v>
+      </c>
+      <c r="E258" t="s">
+        <v>637</v>
+      </c>
+      <c r="F258">
+        <v>11499.64</v>
+      </c>
+      <c r="I258">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B259" s="22" t="s">
+        <v>581</v>
+      </c>
+      <c r="C259" s="2">
+        <v>362.34</v>
+      </c>
+      <c r="E259" t="s">
+        <v>641</v>
+      </c>
+      <c r="F259">
+        <v>11859.64</v>
+      </c>
+      <c r="I259">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B260" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="C260" s="2">
+        <v>15</v>
+      </c>
+      <c r="I260">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B261" s="21" t="s">
+        <v>605</v>
+      </c>
+      <c r="C261" s="2">
+        <v>170</v>
+      </c>
+      <c r="I261">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A262" s="14">
+        <v>42988</v>
+      </c>
+      <c r="B262" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="C262" s="2">
+        <v>200</v>
+      </c>
+      <c r="I262">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B263" s="21" t="s">
+        <v>583</v>
+      </c>
+      <c r="C263" s="2">
+        <v>170</v>
+      </c>
+      <c r="I263">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B264" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="C264" s="2">
+        <v>150</v>
+      </c>
+      <c r="I264">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B265" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C265" s="2">
+        <v>30</v>
+      </c>
+      <c r="I265">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B266" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C266" s="2">
+        <v>30</v>
+      </c>
+      <c r="I266">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B267" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="C267" s="2">
+        <v>30</v>
+      </c>
+      <c r="I267">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A268" s="14">
+        <v>42989</v>
+      </c>
+      <c r="B268" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="C268" s="2">
+        <v>7</v>
+      </c>
+      <c r="I268">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A269" s="14">
+        <v>42991</v>
+      </c>
+      <c r="B269" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="C269" s="2">
+        <v>7</v>
+      </c>
+      <c r="I269">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A270" s="14"/>
+      <c r="B270" t="s">
+        <v>613</v>
+      </c>
+      <c r="I270">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A271" s="14">
+        <v>42993</v>
+      </c>
+      <c r="B271" s="22" t="s">
+        <v>598</v>
+      </c>
+      <c r="C271" s="2">
+        <v>420</v>
+      </c>
+      <c r="I271">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B272" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="C272" s="2">
+        <v>30</v>
+      </c>
+      <c r="I272">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A273" s="14">
+        <v>42995</v>
+      </c>
+      <c r="B273" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="C273" s="2">
+        <v>180</v>
+      </c>
+      <c r="I273">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B274" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="C274" s="2">
+        <v>80</v>
+      </c>
+      <c r="I274">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B275" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C275" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B276" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="C276" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A277" s="14">
+        <v>42996</v>
+      </c>
+      <c r="B277" s="22" t="s">
+        <v>606</v>
+      </c>
+      <c r="C277" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A278" s="14">
+        <v>42997</v>
+      </c>
+      <c r="B278" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B279" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C279" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A280" s="14">
+        <v>42998</v>
+      </c>
+      <c r="B280" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="C280" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A281" s="14">
+        <v>42999</v>
+      </c>
+      <c r="B281" s="22" t="s">
+        <v>642</v>
+      </c>
+      <c r="C281" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A282" s="14">
+        <v>43000</v>
+      </c>
+      <c r="B282" s="22" t="s">
+        <v>615</v>
+      </c>
+      <c r="C282" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B283" s="21" t="s">
+        <v>619</v>
+      </c>
+      <c r="C283" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B284" s="21" t="s">
+        <v>618</v>
+      </c>
+      <c r="C284" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A285" s="14">
+        <v>43002</v>
+      </c>
+      <c r="B285" s="21" t="s">
+        <v>620</v>
+      </c>
+      <c r="C285" s="2">
+        <v>200</v>
+      </c>
+      <c r="E285" t="s">
+        <v>644</v>
+      </c>
+      <c r="F285">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A286" s="14">
+        <v>43003</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C286" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A287" s="14"/>
+      <c r="B287" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="C287" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A288" s="14"/>
+      <c r="B288" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="C288" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A289" s="14">
+        <v>43004</v>
+      </c>
+      <c r="B289" s="22" t="s">
+        <v>624</v>
+      </c>
+      <c r="C289" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A291" s="14">
+        <v>43019</v>
+      </c>
+      <c r="B291" s="22" t="s">
+        <v>627</v>
+      </c>
+      <c r="C291" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A292" s="14">
+        <v>43022</v>
+      </c>
+      <c r="B292" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="C292" s="2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A293" s="15" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A294" s="14">
+        <v>43023</v>
+      </c>
+      <c r="B294" s="20" t="s">
+        <v>639</v>
+      </c>
+      <c r="C294" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B295" s="20" t="s">
+        <v>640</v>
+      </c>
+      <c r="C295" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B296" s="20"/>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B297" s="20"/>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B298" s="20"/>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B299" s="20"/>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B300" s="20"/>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B301" s="20"/>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B302" s="20"/>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B303" s="20"/>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B304" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/python/mywork/每日工作.xlsx
+++ b/python/mywork/每日工作.xlsx
@@ -1923,679 +1923,679 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>电池一板10元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速山东U盘8元，广东U盘10元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职82.2+104元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德邦河南30收据5卷纸到付17元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王金金安能物流11箱包装到付300元王金金已给</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德邦河南2POS机到付12元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职98.1元，110.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58买简历224元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德邦福建500小升初67元到付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王金金取80卡盘狗，20本收据，2POS机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许玫讲师拿走一个加密狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给李娟转账200义乌寄空盒子到廊坊产生的物流费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东购买热敏纸，收据10套，剪刀，本子2套，笔2套，橡皮筋386.5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝纸箱60个，33.4元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服一白电话13301083548充话费100元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔梁饭钱30元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海龙饭钱30元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德邦李娟POS机卷纸收据12元到付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速长沙小册子500本72元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德邦河北物流三箱包装到付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东小推车208元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东胶带4卷20元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔梁8.13饭补13元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投影电源线20元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7号电池10元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北邮寄1POS机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张大伟拿走1各加密狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速北京换u盘，福建发票共16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康炜陈亮讲师快递费15元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21号康老师王婷讲师快递费5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职群红包20元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400缴费1000元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓亚拿走一个北京版本U盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职客服1，9小时135元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职客服2,9.5小时190元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职客服1，,9.5小时142.5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职客服2,9小时180元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职客服1，9.5小时142.5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂家邮寄3000盘，另外刻前坏203个，检测坏43个，附带1盘1狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速两个家长，贵州12元，另一个6元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海龙饭钱30元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔梁饭钱30元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾建伟饭钱30元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋老师拿走100U盘检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张培兴带走4个U盘上门安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京家长高红建寄回1个U盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京家长杨建寄回1个U盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电费500度，600元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成老师拿走1加密狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廊坊成老师带走60套盘狗卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王金金要40套狗卡盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建要了50个U盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东寄走80套盘狗卡，补充坏盘用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邱武杨老师带走100盘，补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东120套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建200套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西宁150套，缺100狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山西150套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南400套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王金金带回来152套狗盘卡，少1张卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东寄回45套狗盘卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职客服周六8.5小时，170元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东寄回96盘，101狗，101卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职客服周日10小时，200元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建寄回48套狗盘卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐卫勇寄回171套狗盘卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王金金拿回40套狗盘卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔龙成老师带回83套狗盘卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司网站主机续费一年1489.2元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张培兴兼职500元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李娟寄回1POS机，29盘，2加密狗坏了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速寄发票和加密狗78元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建寄走120套狗盘卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东寄走220套狗盘卡（济宁120+济南100）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳U盘厂家给他寄去605盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳U盘厂家寄回来刻好的800U盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建发走50套狗盘卡，东芝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王金金拿走1蓝盘给通州上门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北寄回18套狗盘卡，杜维娟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速寄发票和2加密狗78元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密狗统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共705</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德邦到付山西古主任41元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄走邱武长沙330套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄走山西李娟50个盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄走孔龙银川200套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄走徐卫勇70套，加17个补发U盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王金金带走40套盘（白盘）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄走杜维娟120套（蓝盘）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄走邱武南宁120套（外延蓝盘）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄走阙志强补发30套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速鲍雪琼邮寄U盘8元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电费200度*1.2元，240元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔梁加班饭钱15元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王金金带走60套狗盘卡，长盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺丰月结1117元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔龙寄回来150盘，150卡，50狗，5收据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴寄回来一套产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速湖南寄移动硬盘和换加密狗，9元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速发票山东7张56元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东购买收据10套，蟑螂药，皮筋2盒，黑彩墨盒362.34元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔梁晚餐补助15元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职2费用170元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门禁卡150元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速河北加密狗7元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周天杜维娟顺风车带走100套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到南宁退回120套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给邱武邮寄20个U盘，白色东芝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康老师带回来孔龙一个POS机说坏了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李娟寄回81加密狗，100U盘，50+28+5卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北徐卫勇寄回来52狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将南宁的120个东芝U盘寄给邱武长沙，另加130U盘，70狗，70卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长春 曹拿走100套，其中20个初二是绿色东芝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速河北加密狗7元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王金金拿走100套，长盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东大仲寄走50套，长盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东韶关邱武寄走200套，长盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浇花6个月420元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打车送顺丰快递30元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长春断货快递100套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南寄回来238盘（当地写的248）+25坏盘，272卡，273加密狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职9小时180元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职4小时80元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职1费用150元+50元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职130元+40元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买灯泡18元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速快递硬盘8元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾建伟加班6点到11点，五个小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速长春家长一套货14元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买POS机电池6块，35一块，共210元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海龙加班1.5小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾建伟饭钱30元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速寄发票7张50元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东顺丰邮寄2套狗盘卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔铿寄回来106狗，106盘，卡还没数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职2,8小时，120元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职1,6小时，120元+40元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职1，10小时，200元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李娟测盘带走100个，1个加密狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康老师带走50个盘检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给杜维娟准备30套包装，10套狗盘卡（张亭给发的，狗盘卡重新入库了）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江于成文4箱包装+1箱寄回来的产品43套，少一个U盘，德邦到付258元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板带走182盘检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黄重庆发走250套狗盘卡，15收据，2卷纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.10号优速王海龙发U盘8元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共3247盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海龙8.14饭钱15元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩亮饭钱30元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩亮饭钱30元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开通5号客服超级QQ228元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报销单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共花费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,9,10月份清账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职10小时，200元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职8小时，160元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加上2次兼职</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买POS机电池6块，35一块，共210元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开通5号客服超级QQ228元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>蒋老师邮寄4个32G盘，4个加密狗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电池一板10元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优速山东U盘8元，广东U盘10元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼职82.2+104元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>德邦河南30收据5卷纸到付17元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王金金安能物流11箱包装到付300元王金金已给</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>德邦河南2POS机到付12元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼职98.1元，110.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58买简历224元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>德邦福建500小升初67元到付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王金金取80卡盘狗，20本收据，2POS机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许玫讲师拿走一个加密狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给李娟转账200义乌寄空盒子到廊坊产生的物流费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>借款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京东购买热敏纸，收据10套，剪刀，本子2套，笔2套，橡皮筋386.5元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淘宝纸箱60个，33.4元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客服一白电话13301083548充话费100元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乔梁饭钱30元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王海龙饭钱30元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>德邦李娟POS机卷纸收据12元到付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优速长沙小册子500本72元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>德邦河北物流三箱包装到付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京东小推车208元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京东胶带4卷20元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乔梁8.13饭补13元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投影电源线20元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>邓亚拿走一个加密狗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>康老师寄回1个加密狗和U盘，给了另一个讲师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7号电池10元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河北邮寄1POS机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张大伟拿走1各加密狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优速北京换u盘，福建发票共16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>康炜陈亮讲师快递费15元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21号康老师王婷讲师快递费5元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼职群红包20元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400缴费1000元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邓亚拿走一个北京版本U盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼职客服1，9小时135元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼职客服2,9.5小时190元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼职客服1，,9.5小时142.5元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼职客服2,9小时180元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼职客服1，9.5小时142.5元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厂家邮寄3000盘，另外刻前坏203个，检测坏43个，附带1盘1狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优速两个家长，贵州12元，另一个6元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王海龙饭钱30元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乔梁饭钱30元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾建伟饭钱30元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒋老师拿走100U盘检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张培兴带走4个U盘上门安装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京家长高红建寄回1个U盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京家长杨建寄回1个U盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电费500度，600元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成老师拿走1加密狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>廊坊成老师带走60套盘狗卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王金金要40套狗卡盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福建要了50个U盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山东寄走80套盘狗卡，补充坏盘用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邱武杨老师带走100盘，补充</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山东120套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福建200套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西宁150套，缺100狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山西150套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖南400套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王金金带回来152套狗盘卡，少1张卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山东寄回45套狗盘卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼职客服周六8.5小时，170元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山东寄回96盘，101狗，101卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼职客服周日10小时，200元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福建寄回48套狗盘卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐卫勇寄回171套狗盘卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王金金拿回40套狗盘卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔龙成老师带回83套狗盘卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司网站主机续费一年1489.2元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张培兴兼职500元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李娟寄回1POS机，29盘，2加密狗坏了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优速寄发票和加密狗78元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福建寄走120套狗盘卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山东寄走220套狗盘卡（济宁120+济南100）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳U盘厂家给他寄去605盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳U盘厂家寄回来刻好的800U盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福建发走50套狗盘卡，东芝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王金金拿走1蓝盘给通州上门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河北寄回18套狗盘卡，杜维娟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优速寄发票和2加密狗78元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加密狗统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共705</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>德邦到付山西古主任41元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄走邱武长沙330套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄走山西李娟50个盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄走孔龙银川200套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄走徐卫勇70套，加17个补发U盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王金金带走40套盘（白盘）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄走杜维娟120套（蓝盘）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄走邱武南宁120套（外延蓝盘）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄走阙志强补发30套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>借款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优速鲍雪琼邮寄U盘8元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电费200度*1.2元，240元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乔梁加班饭钱15元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王金金带走60套狗盘卡，长盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺丰月结1117元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔龙寄回来150盘，150卡，50狗，5收据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴寄回来一套产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优速湖南寄移动硬盘和换加密狗，9元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优速发票山东7张56元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京东购买收据10套，蟑螂药，皮筋2盒，黑彩墨盒362.34元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乔梁晚餐补助15元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼职2费用170元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门禁卡150元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优速河北加密狗7元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周天杜维娟顺风车带走100套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收到南宁退回120套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给邱武邮寄20个U盘，白色东芝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>康老师带回来孔龙一个POS机说坏了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李娟寄回81加密狗，100U盘，50+28+5卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河北徐卫勇寄回来52狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将南宁的120个东芝U盘寄给邱武长沙，另加130U盘，70狗，70卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长春 曹拿走100套，其中20个初二是绿色东芝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优速河北加密狗7元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王金金拿走100套，长盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东大仲寄走50套，长盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东韶关邱武寄走200套，长盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浇花6个月420元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打车送顺丰快递30元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长春断货快递100套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河南寄回来238盘（当地写的248）+25坏盘，272卡，273加密狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼职9小时180元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼职4小时80元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼职1费用150元+50元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼职130元+40元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买灯泡18元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优速快递硬盘8元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾建伟加班6点到11点，五个小时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优速长春家长一套货14元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买POS机电池6块，35一块，共210元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>饭钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王海龙加班1.5小时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾建伟饭钱30元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优速寄发票7张50元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山东顺丰邮寄2套狗盘卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔铿寄回来106狗，106盘，卡还没数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼职2,8小时，120元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼职1,6小时，120元+40元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼职1，10小时，200元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李娟测盘带走100个，1个加密狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>康老师带走50个盘检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给杜维娟准备30套包装，10套狗盘卡（张亭给发的，狗盘卡重新入库了）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江于成文4箱包装+1箱寄回来的产品43套，少一个U盘，德邦到付258元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老板带走182盘检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小黄重庆发走250套狗盘卡，15收据，2卷纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.10号优速王海龙发U盘8元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共3247盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王海龙8.14饭钱15元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩亮饭钱30元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩亮饭钱30元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开通5号客服超级QQ228元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼职</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报销单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>饭钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共花费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,9,10月份清账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼职10小时，200元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼职8小时，160元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加上2次兼职</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买POS机电池6块，35一块，共210元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开通5号客服超级QQ228元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>借款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3050,8 +3050,8 @@
   </sheetPr>
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView topLeftCell="A462" workbookViewId="0">
-      <selection activeCell="B498" sqref="B498"/>
+    <sheetView topLeftCell="A480" workbookViewId="0">
+      <selection activeCell="C505" sqref="C505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5179,7 +5179,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B340" t="s">
-        <v>476</v>
+        <v>642</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.15">
@@ -5192,17 +5192,17 @@
         <v>42962</v>
       </c>
       <c r="B342" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B343" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B344" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.15">
@@ -5210,22 +5210,22 @@
         <v>42963</v>
       </c>
       <c r="B345" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B346" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B347" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B348" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.15">
@@ -5233,17 +5233,17 @@
         <v>42964</v>
       </c>
       <c r="B349" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B350" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B351" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.15">
@@ -5251,22 +5251,22 @@
         <v>42965</v>
       </c>
       <c r="B352" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B353" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B354" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B355" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.15">
@@ -5274,52 +5274,52 @@
         <v>42968</v>
       </c>
       <c r="B356" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B357" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B358" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B359" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B360" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B361" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B362" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B363" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B364" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B365" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.15">
@@ -5327,17 +5327,17 @@
         <v>42969</v>
       </c>
       <c r="B366" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B367" t="s">
-        <v>502</v>
+        <v>643</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B368" t="s">
-        <v>503</v>
+        <v>644</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.15">
@@ -5345,22 +5345,22 @@
         <v>42970</v>
       </c>
       <c r="B369" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B370" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B371" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B372" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.15">
@@ -5368,27 +5368,27 @@
         <v>42972</v>
       </c>
       <c r="B373" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B374" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B375" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B376" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B377" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.15">
@@ -5396,12 +5396,12 @@
         <v>42973</v>
       </c>
       <c r="B378" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B379" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.15">
@@ -5409,12 +5409,12 @@
         <v>42974</v>
       </c>
       <c r="B380" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B381" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.15">
@@ -5422,15 +5422,15 @@
         <v>42975</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C382" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B383" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.15">
@@ -5438,22 +5438,22 @@
         <v>42976</v>
       </c>
       <c r="B384" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B385" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B386" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B387" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.15">
@@ -5461,27 +5461,27 @@
         <v>42977</v>
       </c>
       <c r="B388" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B389" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B390" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B391" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B392" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.15">
@@ -5489,52 +5489,52 @@
         <v>42979</v>
       </c>
       <c r="B393" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B394" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B395" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B396" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B397" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B398" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B399" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B400" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B401" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B402" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.15">
@@ -5542,18 +5542,18 @@
         <v>42981</v>
       </c>
       <c r="B403" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C403" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D403" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B404" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C404">
         <v>152</v>
@@ -5561,7 +5561,7 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B405" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C405">
         <v>18</v>
@@ -5569,7 +5569,7 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B406" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C406">
         <v>45</v>
@@ -5577,12 +5577,12 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B407" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B408" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.15">
@@ -5590,7 +5590,7 @@
         <v>42982</v>
       </c>
       <c r="B409" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C409">
         <v>101</v>
@@ -5598,7 +5598,7 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B410" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C410">
         <v>48</v>
@@ -5606,7 +5606,7 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B411" s="15" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C411">
         <v>45</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B412" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C412">
         <v>171</v>
@@ -5622,7 +5622,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B413" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C413">
         <v>40</v>
@@ -5630,7 +5630,7 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B414" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C414">
         <v>83</v>
@@ -5641,17 +5641,17 @@
         <v>42983</v>
       </c>
       <c r="B415" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B416" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B417" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C417">
         <v>2</v>
@@ -5659,27 +5659,27 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B418" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B419" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B420" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B421" s="5" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B422" s="5" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.15">
@@ -5687,52 +5687,52 @@
         <v>42984</v>
       </c>
       <c r="B423" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B424" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B425" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B426" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B427" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B428" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B429" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B430" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B431" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B432" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.15">
@@ -5747,12 +5747,12 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B435" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B436" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.15">
@@ -5760,17 +5760,17 @@
         <v>42985</v>
       </c>
       <c r="B437" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B438" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B439" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.15">
@@ -5778,43 +5778,43 @@
         <v>42986</v>
       </c>
       <c r="B440" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B441" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B442" t="s">
-        <v>578</v>
+      <c r="B442" s="5" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B443" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B444" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B445" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B446" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A447" s="13"/>
       <c r="B447" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.15">
@@ -5822,17 +5822,17 @@
         <v>42988</v>
       </c>
       <c r="B448" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B449" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B450" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.15">
@@ -5847,7 +5847,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B453" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.15">
@@ -5855,12 +5855,12 @@
         <v>42989</v>
       </c>
       <c r="B454" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B455" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.15">
@@ -5868,32 +5868,32 @@
         <v>42990</v>
       </c>
       <c r="B456" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B457" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B458" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B459" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B460" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B461" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.15">
@@ -5901,33 +5901,33 @@
         <v>42991</v>
       </c>
       <c r="B462" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B463" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B464" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B465" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B466" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A467" s="13"/>
       <c r="B467" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.15">
@@ -5935,12 +5935,12 @@
         <v>42993</v>
       </c>
       <c r="B468" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B469" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.15">
@@ -5948,12 +5948,12 @@
         <v>42994</v>
       </c>
       <c r="B470" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B471" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.15">
@@ -5961,12 +5961,12 @@
         <v>42996</v>
       </c>
       <c r="B472" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B473" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.15">
@@ -5976,7 +5976,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B475" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.15">
@@ -5984,7 +5984,7 @@
         <v>42996</v>
       </c>
       <c r="B476" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.15">
@@ -5992,12 +5992,12 @@
         <v>42997</v>
       </c>
       <c r="B477" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B478" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.15">
@@ -6005,7 +6005,7 @@
         <v>42998</v>
       </c>
       <c r="B479" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.15">
@@ -6013,7 +6013,7 @@
         <v>42999</v>
       </c>
       <c r="B480" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.15">
@@ -6021,7 +6021,7 @@
         <v>43000</v>
       </c>
       <c r="B481" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.15">
@@ -6029,27 +6029,27 @@
         <v>43001</v>
       </c>
       <c r="B482" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B483" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B484" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B485" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B486" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.15">
@@ -6057,17 +6057,17 @@
         <v>43002</v>
       </c>
       <c r="B487" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B488" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B489" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.15">
@@ -6080,12 +6080,12 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B491" s="20" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B492" s="20" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.15">
@@ -6093,7 +6093,7 @@
         <v>43004</v>
       </c>
       <c r="B493" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.15">
@@ -6101,17 +6101,17 @@
         <v>43018</v>
       </c>
       <c r="B495" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B496" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B497" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.15">
@@ -6119,7 +6119,7 @@
         <v>43022</v>
       </c>
       <c r="B498" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.15">
@@ -6127,12 +6127,12 @@
         <v>43023</v>
       </c>
       <c r="B500" s="20" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B501" s="20" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -6149,8 +6149,8 @@
   </sheetPr>
   <dimension ref="A1:N304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="F286" sqref="F286"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="E201" sqref="E201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9035,7 +9035,7 @@
         <v>42962</v>
       </c>
       <c r="B212" s="22" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C212" s="2">
         <v>10</v>
@@ -9043,24 +9043,24 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B213" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C213" s="2">
         <v>18</v>
       </c>
       <c r="E213" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F213">
         <v>4000</v>
       </c>
       <c r="H213" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B214" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C214" s="2">
         <v>186.2</v>
@@ -9072,7 +9072,7 @@
         <v>18</v>
       </c>
       <c r="K214" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="L214">
         <v>228</v>
@@ -9080,7 +9080,7 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B215" s="21" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C215" s="2">
         <v>208.5</v>
@@ -9100,7 +9100,7 @@
         <v>42964</v>
       </c>
       <c r="B216" s="22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C216" s="2">
         <v>224</v>
@@ -9120,7 +9120,7 @@
         <v>42965</v>
       </c>
       <c r="B217" s="22" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C217" s="2">
         <v>200</v>
@@ -9134,7 +9134,7 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B218" s="22" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C218" s="2">
         <v>386.5</v>
@@ -9148,7 +9148,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B219" s="22" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C219" s="2">
         <v>33.4</v>
@@ -9165,7 +9165,7 @@
         <v>42968</v>
       </c>
       <c r="B220" s="22" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C220" s="2">
         <v>100</v>
@@ -9179,7 +9179,7 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B221" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C221" s="2">
         <v>30</v>
@@ -9193,7 +9193,7 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B222" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C222" s="2">
         <v>30</v>
@@ -9207,7 +9207,7 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B223" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C223" s="2">
         <v>13</v>
@@ -9221,7 +9221,7 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B224" s="5" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C224" s="2">
         <v>15</v>
@@ -9235,7 +9235,7 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B225" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C225" s="2">
         <v>208</v>
@@ -9249,7 +9249,7 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B226" s="22" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C226" s="2">
         <v>20</v>
@@ -9260,7 +9260,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B227" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C227" s="2">
         <v>72</v>
@@ -9274,13 +9274,13 @@
         <v>42969</v>
       </c>
       <c r="B228" s="22" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C228" s="2">
         <v>20</v>
       </c>
       <c r="H228" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="I228">
         <v>13</v>
@@ -9294,7 +9294,7 @@
         <v>42970</v>
       </c>
       <c r="B229" s="22" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C229" s="2">
         <v>10</v>
@@ -9314,7 +9314,7 @@
         <v>42971</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C230" s="2">
         <v>16</v>
@@ -9331,7 +9331,7 @@
         <v>42972</v>
       </c>
       <c r="B231" s="22" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C231" s="2">
         <v>15</v>
@@ -9345,7 +9345,7 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B232" s="22" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C232" s="2">
         <v>5</v>
@@ -9359,7 +9359,7 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B233" s="21" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C233" s="2">
         <v>20</v>
@@ -9373,7 +9373,7 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B234" s="22" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C234" s="2">
         <v>1000</v>
@@ -9382,7 +9382,7 @@
         <v>30</v>
       </c>
       <c r="K234" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="L234">
         <v>13</v>
@@ -9393,7 +9393,7 @@
         <v>42973</v>
       </c>
       <c r="B235" s="21" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C235" s="2">
         <v>135</v>
@@ -9404,7 +9404,7 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B236" s="21" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C236" s="2">
         <v>190</v>
@@ -9418,7 +9418,7 @@
         <v>42974</v>
       </c>
       <c r="B237" s="21" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C237" s="2">
         <v>142.5</v>
@@ -9432,7 +9432,7 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B238" s="21" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C238" s="2">
         <v>180</v>
@@ -9449,7 +9449,7 @@
         <v>42976</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C239" s="2">
         <v>18</v>
@@ -9463,7 +9463,7 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B240" s="5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C240" s="2">
         <v>30</v>
@@ -9477,7 +9477,7 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B241" s="5" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C241" s="2">
         <v>30</v>
@@ -9491,7 +9491,7 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B242" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C242" s="2">
         <v>30</v>
@@ -9525,7 +9525,7 @@
         <v>42981</v>
       </c>
       <c r="B244" s="21" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C244" s="2">
         <v>170</v>
@@ -9539,7 +9539,7 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B245" s="21" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C245" s="2">
         <v>200</v>
@@ -9556,13 +9556,13 @@
         <v>42983</v>
       </c>
       <c r="B246" s="22" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C246" s="2">
         <v>1489.2</v>
       </c>
       <c r="E246" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F246">
         <v>5500</v>
@@ -9576,7 +9576,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B247" s="21" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C247" s="2">
         <v>500</v>
@@ -9590,7 +9590,7 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B248" s="9" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C248" s="2">
         <v>78</v>
@@ -9607,7 +9607,7 @@
         <v>42984</v>
       </c>
       <c r="B249" s="22" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C249" s="2">
         <v>41</v>
@@ -9624,7 +9624,7 @@
         <v>30</v>
       </c>
       <c r="H250" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="I250">
         <v>82.2</v>
@@ -9652,7 +9652,7 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B252" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C252" s="2">
         <v>30</v>
@@ -9669,7 +9669,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B253" s="9" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C253" s="2">
         <v>8</v>
@@ -9681,7 +9681,7 @@
         <v>110.4</v>
       </c>
       <c r="K253" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="L253">
         <v>311</v>
@@ -9692,7 +9692,7 @@
         <v>42985</v>
       </c>
       <c r="B254" s="22" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C254" s="2">
         <v>240</v>
@@ -9703,7 +9703,7 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B255" s="5" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="I255">
         <v>135</v>
@@ -9714,7 +9714,7 @@
         <v>42986</v>
       </c>
       <c r="B256" s="22" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C256" s="2">
         <v>1117</v>
@@ -9725,7 +9725,7 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B257" s="9" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C257" s="2">
         <v>56</v>
@@ -9736,13 +9736,13 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B258" s="9" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C258" s="2">
         <v>9</v>
       </c>
       <c r="E258" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F258">
         <v>11499.64</v>
@@ -9753,13 +9753,13 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B259" s="22" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C259" s="2">
         <v>362.34</v>
       </c>
       <c r="E259" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F259">
         <v>11859.64</v>
@@ -9770,7 +9770,7 @@
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B260" s="5" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C260" s="2">
         <v>15</v>
@@ -9781,7 +9781,7 @@
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B261" s="21" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C261" s="2">
         <v>170</v>
@@ -9795,7 +9795,7 @@
         <v>42988</v>
       </c>
       <c r="B262" s="21" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C262" s="2">
         <v>200</v>
@@ -9806,7 +9806,7 @@
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B263" s="21" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C263" s="2">
         <v>170</v>
@@ -9817,7 +9817,7 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B264" s="22" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C264" s="2">
         <v>150</v>
@@ -9850,7 +9850,7 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B267" s="5" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C267" s="2">
         <v>30</v>
@@ -9864,7 +9864,7 @@
         <v>42989</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C268" s="2">
         <v>7</v>
@@ -9878,7 +9878,7 @@
         <v>42991</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C269" s="2">
         <v>7</v>
@@ -9890,7 +9890,7 @@
     <row r="270" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A270" s="14"/>
       <c r="B270" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="I270">
         <v>40</v>
@@ -9901,7 +9901,7 @@
         <v>42993</v>
       </c>
       <c r="B271" s="22" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C271" s="2">
         <v>420</v>
@@ -9912,7 +9912,7 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B272" s="22" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C272" s="2">
         <v>30</v>
@@ -9926,7 +9926,7 @@
         <v>42995</v>
       </c>
       <c r="B273" s="21" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C273" s="2">
         <v>180</v>
@@ -9937,7 +9937,7 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B274" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C274" s="2">
         <v>80</v>
@@ -9956,7 +9956,7 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B276" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C276" s="2">
         <v>30</v>
@@ -9967,7 +9967,7 @@
         <v>42996</v>
       </c>
       <c r="B277" s="22" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C277" s="2">
         <v>18</v>
@@ -9978,12 +9978,12 @@
         <v>42997</v>
       </c>
       <c r="B278" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B279" s="9" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C279" s="2">
         <v>8</v>
@@ -9994,7 +9994,7 @@
         <v>42998</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C280" s="2">
         <v>14</v>
@@ -10005,7 +10005,7 @@
         <v>42999</v>
       </c>
       <c r="B281" s="22" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C281" s="2">
         <v>210</v>
@@ -10016,7 +10016,7 @@
         <v>43000</v>
       </c>
       <c r="B282" s="22" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C282" s="2">
         <v>50</v>
@@ -10024,7 +10024,7 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B283" s="21" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C283" s="2">
         <v>160</v>
@@ -10032,7 +10032,7 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B284" s="21" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C284" s="2">
         <v>120</v>
@@ -10043,13 +10043,13 @@
         <v>43002</v>
       </c>
       <c r="B285" s="21" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C285" s="2">
         <v>200</v>
       </c>
       <c r="E285" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="F285">
         <v>2000</v>
@@ -10069,7 +10069,7 @@
     <row r="287" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A287" s="14"/>
       <c r="B287" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C287" s="2">
         <v>30</v>
@@ -10078,7 +10078,7 @@
     <row r="288" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A288" s="14"/>
       <c r="B288" s="5" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C288" s="2">
         <v>30</v>
@@ -10089,7 +10089,7 @@
         <v>43004</v>
       </c>
       <c r="B289" s="22" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C289" s="2">
         <v>258</v>
@@ -10100,7 +10100,7 @@
         <v>43019</v>
       </c>
       <c r="B291" s="22" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C291" s="2">
         <v>8</v>
@@ -10111,7 +10111,7 @@
         <v>43022</v>
       </c>
       <c r="B292" s="22" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C292" s="2">
         <v>228</v>
@@ -10119,7 +10119,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A293" s="15" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.15">
@@ -10127,7 +10127,7 @@
         <v>43023</v>
       </c>
       <c r="B294" s="20" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C294" s="2">
         <v>200</v>
@@ -10135,7 +10135,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B295" s="20" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C295" s="2">
         <v>160</v>
